--- a/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Infarto de Miocardio (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Infarto de Miocardio (UPTO).xlsx
@@ -590,67 +590,67 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.700915501855793</v>
+        <v>2.4294527363184</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1368888888888886</v>
+        <v>0.112</v>
       </c>
       <c r="I2" t="n">
-        <v>6.64176666666666</v>
+        <v>6.012</v>
       </c>
       <c r="J2" t="n">
-        <v>9.660365562412082</v>
+        <v>9.431442786069635</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7010477321898376</v>
+        <v>0.4759999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>20.99900025104467</v>
+        <v>20.476</v>
       </c>
       <c r="M2" t="n">
-        <v>9.398850061274192</v>
+        <v>9.229492537313428</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6540810136732341</v>
+        <v>0.4479999999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>19.31016527916528</v>
+        <v>19.08799999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>5.781980096431513</v>
+        <v>6.480557213930337</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3270535058204663</v>
+        <v>0.2679999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>12.59505995687319</v>
+        <v>13.14</v>
       </c>
       <c r="S2" t="n">
-        <v>3.701799554504437</v>
+        <v>3.693353233830838</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2089207722523674</v>
+        <v>0.216</v>
       </c>
       <c r="U2" t="n">
-        <v>8.100680770657084</v>
+        <v>8.207999999999997</v>
       </c>
       <c r="V2" t="n">
-        <v>1.516064006750574</v>
+        <v>1.560398009950247</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02025767153547445</v>
+        <v>0.012</v>
       </c>
       <c r="X2" t="n">
-        <v>3.546349417249414</v>
+        <v>3.596000000000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2581546395009079</v>
+        <v>0.2685771144278601</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.9634507936507933</v>
+        <v>0.9959999999999998</v>
       </c>
     </row>
     <row r="3">
@@ -682,58 +682,58 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.09444776119402969</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.706104052387629</v>
+        <v>1.988716417910445</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.016</v>
       </c>
       <c r="O3" t="n">
-        <v>4.575697599089369</v>
+        <v>5.263999999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>2.034947332122445</v>
+        <v>2.456179104477599</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02466666666666667</v>
+        <v>0.036</v>
       </c>
       <c r="R3" t="n">
-        <v>5.905674891774892</v>
+        <v>6.336</v>
       </c>
       <c r="S3" t="n">
-        <v>1.925853565505803</v>
+        <v>2.225890547263679</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.024</v>
       </c>
       <c r="U3" t="n">
-        <v>5.018844444444452</v>
+        <v>5.740000000000001</v>
       </c>
       <c r="V3" t="n">
-        <v>1.398789718076284</v>
+        <v>1.546288557213929</v>
       </c>
       <c r="W3" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
       <c r="X3" t="n">
-        <v>4.123999999999991</v>
+        <v>4.192000000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.3536426202321714</v>
+        <v>0.3864676616915411</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.122057142857144</v>
+        <v>1.276000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -765,58 +765,58 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.05888557213930344</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.156</v>
       </c>
       <c r="M4" t="n">
-        <v>2.161814262023208</v>
+        <v>2.132955223880584</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05831111111111111</v>
+        <v>0.008</v>
       </c>
       <c r="O4" t="n">
-        <v>5.680349206349214</v>
+        <v>5.579999999999997</v>
       </c>
       <c r="P4" t="n">
-        <v>2.849626865671632</v>
+        <v>2.722208955223874</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02096825396825397</v>
+        <v>0.012</v>
       </c>
       <c r="R4" t="n">
-        <v>6.684499999999995</v>
+        <v>6.528</v>
       </c>
       <c r="S4" t="n">
-        <v>2.819764510779424</v>
+        <v>2.663462686567152</v>
       </c>
       <c r="T4" t="n">
-        <v>0.001119047619047619</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>6.758888888888886</v>
+        <v>6.471999999999998</v>
       </c>
       <c r="V4" t="n">
-        <v>1.95683506278133</v>
+        <v>1.897034825870644</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>4.631757142857143</v>
+        <v>4.584000000000001</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.4957710100292185</v>
+        <v>0.4788059701492525</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.351195232545234</v>
+        <v>1.332</v>
       </c>
     </row>
     <row r="5">
@@ -839,67 +839,67 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.0749850746268656</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="J5" t="n">
-        <v>1.785191356708519</v>
+        <v>1.875064676616913</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03193650793650795</v>
+        <v>0.008</v>
       </c>
       <c r="L5" t="n">
-        <v>5.406730793664539</v>
+        <v>5.447999999999997</v>
       </c>
       <c r="M5" t="n">
-        <v>2.062136426453584</v>
+        <v>2.284477611940289</v>
       </c>
       <c r="N5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6.352000000000003</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.393572139303473</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6.559999999999995</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.062029850746265</v>
+      </c>
+      <c r="T5" t="n">
         <v>0.008</v>
       </c>
-      <c r="O5" t="n">
-        <v>5.906125790604155</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.150036818792032</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.009833333333333333</v>
-      </c>
-      <c r="R5" t="n">
-        <v>6.330383333333325</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.873615337454143</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
-        <v>4.731544444444447</v>
+        <v>4.975999999999996</v>
       </c>
       <c r="V5" t="n">
-        <v>1.26217773039564</v>
+        <v>1.359164179104476</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="X5" t="n">
-        <v>3.504314285714286</v>
+        <v>3.599999999999999</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.314792489931295</v>
+        <v>0.3368756218905463</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.069903496503497</v>
+        <v>1.088</v>
       </c>
     </row>
     <row r="6">
@@ -913,76 +913,76 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.02342288557213928</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="G6" t="n">
-        <v>1.314150991076365</v>
+        <v>1.307980099502485</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="I6" t="n">
-        <v>3.607995238095239</v>
+        <v>3.451999999999998</v>
       </c>
       <c r="J6" t="n">
-        <v>4.147387755666107</v>
+        <v>3.990388059701479</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2564771230947702</v>
+        <v>0.184</v>
       </c>
       <c r="L6" t="n">
-        <v>9.59589311799312</v>
+        <v>9.267999999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>4.658464579326405</v>
+        <v>4.78680597014925</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1917287068131461</v>
+        <v>0.204</v>
       </c>
       <c r="O6" t="n">
-        <v>10.50000771938759</v>
+        <v>10.64</v>
       </c>
       <c r="P6" t="n">
-        <v>4.534618185426138</v>
+        <v>4.394427860696511</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2846785077594749</v>
+        <v>0.216</v>
       </c>
       <c r="R6" t="n">
-        <v>10.18227896825395</v>
+        <v>9.784000000000002</v>
       </c>
       <c r="S6" t="n">
-        <v>3.673773221937062</v>
+        <v>3.491781094527359</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1798003072642864</v>
+        <v>0.244</v>
       </c>
       <c r="U6" t="n">
-        <v>7.905537015375555</v>
+        <v>7.528000000000002</v>
       </c>
       <c r="V6" t="n">
-        <v>1.946134145990703</v>
+        <v>2.009333333333329</v>
       </c>
       <c r="W6" t="n">
-        <v>0.06320993079917069</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="X6" t="n">
-        <v>4.535427317613867</v>
+        <v>4.492000000000001</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4084398517231928</v>
+        <v>0.4658905472636802</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.274281124155313</v>
+        <v>1.356</v>
       </c>
     </row>
     <row r="7">
@@ -1014,58 +1014,58 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.68763698175787</v>
+        <v>2.604497512437805</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02626993746993748</v>
+        <v>0.06400000000000002</v>
       </c>
       <c r="L7" t="n">
-        <v>6.326533333333335</v>
+        <v>5.999999999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>9.504407478480607</v>
+        <v>9.438049751243774</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4922747474747474</v>
+        <v>0.5359999999999998</v>
       </c>
       <c r="O7" t="n">
-        <v>20.63897619047617</v>
+        <v>20.40800000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>9.024542439537955</v>
+        <v>9.090189054726363</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5784042048031882</v>
+        <v>0.6040000000000004</v>
       </c>
       <c r="R7" t="n">
-        <v>18.40598997113998</v>
+        <v>18.672</v>
       </c>
       <c r="S7" t="n">
-        <v>5.44080517537529</v>
+        <v>5.931482587064667</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1828382330414232</v>
+        <v>0.192</v>
       </c>
       <c r="U7" t="n">
-        <v>11.35366555185915</v>
+        <v>12.12</v>
       </c>
       <c r="V7" t="n">
-        <v>2.610183068080755</v>
+        <v>2.604497512437801</v>
       </c>
       <c r="W7" t="n">
-        <v>0.05446543566970916</v>
+        <v>0.028</v>
       </c>
       <c r="X7" t="n">
-        <v>5.834881220000042</v>
+        <v>5.912000000000002</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.4502583214877984</v>
+        <v>0.4438606965174118</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.500966583416584</v>
+        <v>1.472</v>
       </c>
     </row>
     <row r="8">
@@ -1097,58 +1097,58 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.47028855721393</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.212</v>
       </c>
       <c r="M8" t="n">
-        <v>22.58853569191076</v>
+        <v>20.68796019900492</v>
       </c>
       <c r="N8" t="n">
-        <v>1.134190476190477</v>
+        <v>1.200000000000001</v>
       </c>
       <c r="O8" t="n">
-        <v>56.35380634920637</v>
+        <v>51.55199999999997</v>
       </c>
       <c r="P8" t="n">
-        <v>10.46433189822889</v>
+        <v>10.643223880597</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4847936507936507</v>
+        <v>0.4200000000000001</v>
       </c>
       <c r="R8" t="n">
-        <v>23.20053896103898</v>
+        <v>23.45199999999999</v>
       </c>
       <c r="S8" t="n">
-        <v>3.346398009950235</v>
+        <v>3.70794029850745</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2346666666666662</v>
+        <v>0.112</v>
       </c>
       <c r="U8" t="n">
-        <v>9.765711111111116</v>
+        <v>10.256</v>
       </c>
       <c r="V8" t="n">
-        <v>0.9357263681592011</v>
+        <v>1.099502487562187</v>
       </c>
       <c r="W8" t="n">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="X8" t="n">
-        <v>3.588222222222231</v>
+        <v>3.795999999999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1366442275800484</v>
+        <v>0.1589850746268655</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.8212325396825385</v>
+        <v>0.8439999999999996</v>
       </c>
     </row>
     <row r="9">
@@ -1171,67 +1171,67 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.07808955223880593</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.216</v>
       </c>
       <c r="J9" t="n">
-        <v>3.236251871594392</v>
+        <v>3.274308457711427</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0794585858585858</v>
+        <v>0.1240000000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>7.580862433862452</v>
+        <v>7.759999999999995</v>
       </c>
       <c r="M9" t="n">
-        <v>4.634375321274709</v>
+        <v>4.69958208955223</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2718477544321937</v>
+        <v>0.3</v>
       </c>
       <c r="O9" t="n">
-        <v>10.50879530587518</v>
+        <v>10.704</v>
       </c>
       <c r="P9" t="n">
-        <v>4.582666836756377</v>
+        <v>4.605990049751234</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2691083775138164</v>
+        <v>0.116</v>
       </c>
       <c r="R9" t="n">
-        <v>10.56061190476191</v>
+        <v>10.328</v>
       </c>
       <c r="S9" t="n">
-        <v>3.885129415467135</v>
+        <v>3.770766169154216</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1911132768699124</v>
+        <v>0.1440000000000001</v>
       </c>
       <c r="U9" t="n">
-        <v>8.220114115707094</v>
+        <v>8.155999999999999</v>
       </c>
       <c r="V9" t="n">
-        <v>2.233593738561042</v>
+        <v>2.173810945273623</v>
       </c>
       <c r="W9" t="n">
-        <v>0.08982542673640577</v>
+        <v>0.1360000000000001</v>
       </c>
       <c r="X9" t="n">
-        <v>5.170562205140148</v>
+        <v>4.899999999999999</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.5071519545407597</v>
+        <v>0.501791044776118</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.385201364209377</v>
+        <v>1.392</v>
       </c>
     </row>
     <row r="10">
@@ -1263,58 +1263,58 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12.49467258943377</v>
+        <v>11.56624875621889</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4796222222222221</v>
+        <v>0.516</v>
       </c>
       <c r="L10" t="n">
-        <v>33.92992448292448</v>
+        <v>30.89200000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>19.64254906830773</v>
+        <v>19.58523383084575</v>
       </c>
       <c r="N10" t="n">
-        <v>1.267038095238095</v>
+        <v>1.307999999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>39.29214920634924</v>
+        <v>40.46399999999998</v>
       </c>
       <c r="P10" t="n">
-        <v>6.346430106083333</v>
+        <v>6.742865671641782</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2569624338624339</v>
+        <v>0.248</v>
       </c>
       <c r="R10" t="n">
-        <v>15.5372380952381</v>
+        <v>15.968</v>
       </c>
       <c r="S10" t="n">
-        <v>1.985757131011605</v>
+        <v>2.168636815920394</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001333333333333334</v>
+        <v>0.004</v>
       </c>
       <c r="U10" t="n">
-        <v>7.388923280423275</v>
+        <v>7.46</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5985149727552698</v>
+        <v>0.6410149253731329</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>2.922507936507941</v>
+        <v>2.859999999999998</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.07945548448235004</v>
+        <v>0.08652736318407954</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.6234725108225108</v>
+        <v>0.6080000000000002</v>
       </c>
     </row>
     <row r="11">
@@ -1337,67 +1337,67 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.132782752902134</v>
+        <v>4.955701492537298</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1728888888888885</v>
+        <v>0.196</v>
       </c>
       <c r="I11" t="n">
-        <v>10.36200000000001</v>
+        <v>12.58</v>
       </c>
       <c r="J11" t="n">
-        <v>13.0037031626918</v>
+        <v>14.59213930348258</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8031334892203312</v>
+        <v>0.8080000000000004</v>
       </c>
       <c r="L11" t="n">
-        <v>29.41975423604056</v>
+        <v>32.43599999999998</v>
       </c>
       <c r="M11" t="n">
-        <v>9.87310817283281</v>
+        <v>9.91052736318407</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6532380461832074</v>
+        <v>0.6200000000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>20.26136630036628</v>
+        <v>20.15600000000002</v>
       </c>
       <c r="P11" t="n">
-        <v>5.858798373652646</v>
+        <v>5.150825870646757</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2150357728980101</v>
+        <v>0.296</v>
       </c>
       <c r="R11" t="n">
-        <v>12.34370421082186</v>
+        <v>11.37200000000001</v>
       </c>
       <c r="S11" t="n">
-        <v>2.521750888415057</v>
+        <v>2.356258706467655</v>
       </c>
       <c r="T11" t="n">
-        <v>0.09118659703750641</v>
+        <v>0.052</v>
       </c>
       <c r="U11" t="n">
-        <v>6.185041918202375</v>
+        <v>6.084</v>
       </c>
       <c r="V11" t="n">
-        <v>0.8896066098081016</v>
+        <v>0.8332537313432828</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>2.932088359788361</v>
+        <v>2.844</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1309195688225537</v>
+        <v>0.1269850746268656</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.6508803418803422</v>
+        <v>0.6480000000000006</v>
       </c>
     </row>
     <row r="12">
@@ -1411,76 +1411,76 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>2.044636815920395</v>
+        <v>1.967761194029847</v>
       </c>
       <c r="E12" t="n">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="F12" t="n">
-        <v>4.659571428571431</v>
+        <v>4.543999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>6.368539856274173</v>
+        <v>6.175223880597005</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2239999999999997</v>
+        <v>0.236</v>
       </c>
       <c r="I12" t="n">
-        <v>14.5330380952381</v>
+        <v>14.14</v>
       </c>
       <c r="J12" t="n">
-        <v>6.98588742399115</v>
+        <v>6.998228855721385</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2268222222222218</v>
+        <v>0.232</v>
       </c>
       <c r="L12" t="n">
-        <v>15.46213578643578</v>
+        <v>15.26800000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>5.995911904163635</v>
+        <v>5.824338308457706</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3760893939393939</v>
+        <v>0.3360000000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>12.02245925925926</v>
+        <v>12.032</v>
       </c>
       <c r="P12" t="n">
-        <v>4.04095756906588</v>
+        <v>4.312039800995017</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.206365846807704</v>
+        <v>0.208</v>
       </c>
       <c r="R12" t="n">
-        <v>8.363317280921699</v>
+        <v>8.764000000000003</v>
       </c>
       <c r="S12" t="n">
-        <v>2.762796104138781</v>
+        <v>2.821313432835812</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1186686238500634</v>
+        <v>0.05600000000000001</v>
       </c>
       <c r="U12" t="n">
-        <v>6.062383377842007</v>
+        <v>6.423999999999999</v>
       </c>
       <c r="V12" t="n">
-        <v>1.447904663550932</v>
+        <v>1.342567164179105</v>
       </c>
       <c r="W12" t="n">
-        <v>0.02204936061381075</v>
+        <v>0.02</v>
       </c>
       <c r="X12" t="n">
-        <v>3.483742607003134</v>
+        <v>3.3</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.2611150201374071</v>
+        <v>0.2572139303482575</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.8356952380952373</v>
+        <v>0.824</v>
       </c>
     </row>
     <row r="13">
@@ -1494,76 +1494,76 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.528955223880596</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="G13" t="n">
-        <v>21.10612411325538</v>
+        <v>19.97930348258704</v>
       </c>
       <c r="H13" t="n">
-        <v>1.187766666666667</v>
+        <v>1.428</v>
       </c>
       <c r="I13" t="n">
-        <v>50.57036535131535</v>
+        <v>47.892</v>
       </c>
       <c r="J13" t="n">
-        <v>13.25272413581442</v>
+        <v>12.96292537313431</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9506771081446929</v>
+        <v>1.031999999999999</v>
       </c>
       <c r="L13" t="n">
-        <v>26.16560923150923</v>
+        <v>26.248</v>
       </c>
       <c r="M13" t="n">
-        <v>5.091842429507099</v>
+        <v>5.135144278606957</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1221731601731602</v>
+        <v>0.184</v>
       </c>
       <c r="O13" t="n">
-        <v>13.00270451400452</v>
+        <v>13.112</v>
       </c>
       <c r="P13" t="n">
-        <v>1.910655913553925</v>
+        <v>1.966746268656716</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01915454545454546</v>
+        <v>0.024</v>
       </c>
       <c r="R13" t="n">
-        <v>6.082088677988675</v>
+        <v>6.319999999999999</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7417419667535323</v>
+        <v>0.7786865671641778</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>3.311699951899954</v>
+        <v>3.264</v>
       </c>
       <c r="V13" t="n">
-        <v>0.2339566659584915</v>
+        <v>0.2490945273631832</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.417234890708421</v>
+        <v>1.44</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.03556491355439988</v>
+        <v>0.04216915422885567</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.3456841455219968</v>
+        <v>0.3719999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -1586,67 +1586,67 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.315771697070201</v>
+        <v>7.058905472636805</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2888888888888886</v>
+        <v>0.3399999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>17.28493333333333</v>
+        <v>18.77199999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>16.420184119326</v>
+        <v>17.32374129353233</v>
       </c>
       <c r="K14" t="n">
-        <v>1.031732817652477</v>
+        <v>1.088000000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>38.61295276516199</v>
+        <v>39.04799999999998</v>
       </c>
       <c r="M14" t="n">
-        <v>9.571440469023802</v>
+        <v>9.362686567164163</v>
       </c>
       <c r="N14" t="n">
-        <v>0.5073134374585986</v>
+        <v>0.6359999999999998</v>
       </c>
       <c r="O14" t="n">
-        <v>19.4360001998002</v>
+        <v>19.284</v>
       </c>
       <c r="P14" t="n">
-        <v>4.071766492932156</v>
+        <v>3.997691542288551</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.179177733377733</v>
+        <v>0.184</v>
       </c>
       <c r="R14" t="n">
-        <v>9.957098039215687</v>
+        <v>10.048</v>
       </c>
       <c r="S14" t="n">
-        <v>1.57238399668325</v>
+        <v>1.578487562189053</v>
       </c>
       <c r="T14" t="n">
-        <v>0.003397109120221248</v>
+        <v>0.004</v>
       </c>
       <c r="U14" t="n">
-        <v>5.004105291005291</v>
+        <v>4.972</v>
       </c>
       <c r="V14" t="n">
-        <v>0.512850775703014</v>
+        <v>0.5155820895522379</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>2.008817064417062</v>
+        <v>2.132000000000001</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.07456912443554226</v>
+        <v>0.07389054726368156</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.478330639948287</v>
+        <v>0.4559999999999998</v>
       </c>
     </row>
     <row r="15">
@@ -1660,76 +1660,76 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.01480597014925372</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="G15" t="n">
-        <v>1.883612366737737</v>
+        <v>1.961194029850743</v>
       </c>
       <c r="H15" t="n">
-        <v>0.002666666666666667</v>
+        <v>0.004</v>
       </c>
       <c r="I15" t="n">
-        <v>5.736561316461316</v>
+        <v>5.776000000000005</v>
       </c>
       <c r="J15" t="n">
-        <v>2.112589981304418</v>
+        <v>2.470925373134317</v>
       </c>
       <c r="K15" t="n">
-        <v>0.007555555555555555</v>
+        <v>0.012</v>
       </c>
       <c r="L15" t="n">
-        <v>5.835924041318164</v>
+        <v>6.416000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>2.172385700304843</v>
+        <v>2.546606965174115</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1240000000000001</v>
+        <v>0.05600000000000001</v>
       </c>
       <c r="O15" t="n">
-        <v>5.596767297622688</v>
+        <v>6.344000000000001</v>
       </c>
       <c r="P15" t="n">
-        <v>2.046853407565344</v>
+        <v>2.344736318407952</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01914444444444445</v>
+        <v>0.012</v>
       </c>
       <c r="R15" t="n">
-        <v>4.942761904761909</v>
+        <v>5.452000000000002</v>
       </c>
       <c r="S15" t="n">
-        <v>1.755573110172757</v>
+        <v>1.963044776119399</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="U15" t="n">
-        <v>4.533970370370364</v>
+        <v>4.816000000000003</v>
       </c>
       <c r="V15" t="n">
-        <v>1.152128381900023</v>
+        <v>1.253830845771143</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>2.918341558441561</v>
+        <v>3.087999999999999</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.2915078654347295</v>
+        <v>0.3140497512437795</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.020266666666667</v>
+        <v>1.052</v>
       </c>
     </row>
     <row r="16">
@@ -1743,76 +1743,76 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.02525373134328356</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="G16" t="n">
-        <v>1.317469399036565</v>
+        <v>1.511661691542287</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="I16" t="n">
-        <v>3.616138095238096</v>
+        <v>3.967999999999998</v>
       </c>
       <c r="J16" t="n">
-        <v>4.145477979151853</v>
+        <v>4.221412935323372</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2937270433270435</v>
+        <v>0.2559999999999998</v>
       </c>
       <c r="L16" t="n">
-        <v>9.947294801494801</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="M16" t="n">
-        <v>4.722179416838259</v>
+        <v>4.99148258706467</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3263955115060378</v>
+        <v>0.26</v>
       </c>
       <c r="O16" t="n">
-        <v>10.59364635112622</v>
+        <v>10.968</v>
       </c>
       <c r="P16" t="n">
-        <v>4.643054080027204</v>
+        <v>4.519004975124371</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2727648521425214</v>
+        <v>0.204</v>
       </c>
       <c r="R16" t="n">
-        <v>10.29457896825395</v>
+        <v>9.884000000000002</v>
       </c>
       <c r="S16" t="n">
-        <v>3.683345692915503</v>
+        <v>3.555343283582083</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2197506978322694</v>
+        <v>0.292</v>
       </c>
       <c r="U16" t="n">
-        <v>7.958689781128317</v>
+        <v>7.639999999999999</v>
       </c>
       <c r="V16" t="n">
-        <v>1.947042106189708</v>
+        <v>2.025353233830843</v>
       </c>
       <c r="W16" t="n">
-        <v>0.06551936506860495</v>
+        <v>0.06400000000000002</v>
       </c>
       <c r="X16" t="n">
-        <v>4.538396389282939</v>
+        <v>4.504000000000001</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.4251673171024142</v>
+        <v>0.468298507462685</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.268224072873262</v>
+        <v>1.328</v>
       </c>
     </row>
     <row r="17">
@@ -1826,76 +1826,76 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.899509673852952</v>
+        <v>1.673273631840793</v>
       </c>
       <c r="E17" t="n">
-        <v>0.008266666666666667</v>
+        <v>0.008</v>
       </c>
       <c r="F17" t="n">
-        <v>4.763238095238096</v>
+        <v>4.375999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>6.436862465450511</v>
+        <v>5.941134328358204</v>
       </c>
       <c r="H17" t="n">
-        <v>0.377482539682539</v>
+        <v>0.336</v>
       </c>
       <c r="I17" t="n">
-        <v>13.80250476190477</v>
+        <v>12.75599999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>7.160138644081176</v>
+        <v>7.085054726368146</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3839946127946126</v>
+        <v>0.3960000000000001</v>
       </c>
       <c r="L17" t="n">
-        <v>14.99453613199665</v>
+        <v>14.88000000000001</v>
       </c>
       <c r="M17" t="n">
-        <v>6.061144321442328</v>
+        <v>5.998587064676614</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4384441558441559</v>
+        <v>0.404</v>
       </c>
       <c r="O17" t="n">
-        <v>11.9306041921042</v>
+        <v>12.056</v>
       </c>
       <c r="P17" t="n">
-        <v>4.068777575335635</v>
+        <v>4.511283582089545</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1484613326553634</v>
+        <v>0.276</v>
       </c>
       <c r="R17" t="n">
-        <v>8.267218002422419</v>
+        <v>8.952000000000004</v>
       </c>
       <c r="S17" t="n">
-        <v>2.736395144650509</v>
+        <v>2.934825870646756</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0981655255438886</v>
+        <v>0.1280000000000001</v>
       </c>
       <c r="U17" t="n">
-        <v>5.881358323811072</v>
+        <v>6.276</v>
       </c>
       <c r="V17" t="n">
-        <v>1.449102247061948</v>
+        <v>1.437910447761193</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01761717067951555</v>
+        <v>0.02</v>
       </c>
       <c r="X17" t="n">
-        <v>3.462913524974051</v>
+        <v>3.42</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.2695584695569761</v>
+        <v>0.2746467661691535</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.9387316017316013</v>
+        <v>0.9560000000000002</v>
       </c>
     </row>
     <row r="18">
@@ -1927,58 +1927,58 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.05888557213930344</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.156</v>
       </c>
       <c r="M18" t="n">
-        <v>2.161525704809277</v>
+        <v>2.224338308457699</v>
       </c>
       <c r="N18" t="n">
-        <v>0.02071111111111111</v>
+        <v>0.016</v>
       </c>
       <c r="O18" t="n">
-        <v>5.680482539682546</v>
+        <v>5.979999999999997</v>
       </c>
       <c r="P18" t="n">
-        <v>2.769213930348251</v>
+        <v>2.846208955223873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0318888888888889</v>
+        <v>0.036</v>
       </c>
       <c r="R18" t="n">
-        <v>6.632999999999993</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="S18" t="n">
-        <v>2.726132669983405</v>
+        <v>2.769611940298496</v>
       </c>
       <c r="T18" t="n">
-        <v>0.08266666666666671</v>
+        <v>0.016</v>
       </c>
       <c r="U18" t="n">
-        <v>6.701333333333331</v>
+        <v>6.743999999999997</v>
       </c>
       <c r="V18" t="n">
-        <v>1.954028855721391</v>
+        <v>1.924119402985072</v>
       </c>
       <c r="W18" t="n">
         <v>0.008</v>
       </c>
       <c r="X18" t="n">
-        <v>4.697233333333333</v>
+        <v>4.628000000000001</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.4965221116639023</v>
+        <v>0.4811542288557202</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.355488522588524</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="19">
@@ -1992,76 +1992,76 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>4.66326009634366</v>
+        <v>4.781711442786055</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1129999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="F19" t="n">
-        <v>10.77200000000001</v>
+        <v>11.244</v>
       </c>
       <c r="G19" t="n">
-        <v>13.8577591408039</v>
+        <v>13.90493532338308</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8736444444444449</v>
+        <v>0.9519999999999997</v>
       </c>
       <c r="I19" t="n">
-        <v>31.24592857142856</v>
+        <v>31.31599999999998</v>
       </c>
       <c r="J19" t="n">
-        <v>10.23876927162113</v>
+        <v>9.797233830845755</v>
       </c>
       <c r="K19" t="n">
-        <v>0.420946031746031</v>
+        <v>0.4679999999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>20.50913909793912</v>
+        <v>19.92799999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>5.589805589177721</v>
+        <v>5.204616915422882</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3811971861471861</v>
+        <v>0.3400000000000001</v>
       </c>
       <c r="O19" t="n">
-        <v>11.79779270729271</v>
+        <v>11.56</v>
       </c>
       <c r="P19" t="n">
-        <v>2.625155322993945</v>
+        <v>2.563203980099489</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.09455572562513728</v>
+        <v>0.05600000000000001</v>
       </c>
       <c r="R19" t="n">
-        <v>6.741917582417584</v>
+        <v>6.596000000000001</v>
       </c>
       <c r="S19" t="n">
-        <v>1.13574728737266</v>
+        <v>1.181691542288555</v>
       </c>
       <c r="T19" t="n">
-        <v>0.003817086834733894</v>
+        <v>0.012</v>
       </c>
       <c r="U19" t="n">
-        <v>3.778980952380952</v>
+        <v>3.871999999999998</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4250350706783534</v>
+        <v>0.4669651741293526</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.80334188034188</v>
+        <v>1.848</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.0615207652215114</v>
+        <v>0.07520398009950231</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.4139136752136747</v>
+        <v>0.4279999999999998</v>
       </c>
     </row>
     <row r="20">
@@ -2075,76 +2075,76 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.337541727868591</v>
+        <v>1.395482587064676</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>3.593926743626744</v>
+        <v>3.827999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>4.149910358740197</v>
+        <v>4.066308457711432</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1590332371332369</v>
+        <v>0.108</v>
       </c>
       <c r="I20" t="n">
-        <v>9.725781924671475</v>
+        <v>9.703999999999997</v>
       </c>
       <c r="J20" t="n">
-        <v>4.722126148194135</v>
+        <v>4.735860696517396</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1396439153439153</v>
+        <v>0.108</v>
       </c>
       <c r="L20" t="n">
-        <v>10.32256115551116</v>
+        <v>10.61200000000001</v>
       </c>
       <c r="M20" t="n">
-        <v>4.64862964370739</v>
+        <v>4.533771144278593</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2076516366674262</v>
+        <v>0.188</v>
       </c>
       <c r="O20" t="n">
-        <v>10.02033717023717</v>
+        <v>9.923999999999999</v>
       </c>
       <c r="P20" t="n">
-        <v>3.902195103389656</v>
+        <v>3.757810945273623</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1651523173317908</v>
+        <v>0.172</v>
       </c>
       <c r="R20" t="n">
-        <v>8.266559272263686</v>
+        <v>8.163999999999994</v>
       </c>
       <c r="S20" t="n">
-        <v>2.772518444816346</v>
+        <v>2.793850746268641</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1335809234023629</v>
+        <v>0.1600000000000001</v>
       </c>
       <c r="U20" t="n">
-        <v>6.004922627481258</v>
+        <v>6.075999999999997</v>
       </c>
       <c r="V20" t="n">
-        <v>1.501260101866072</v>
+        <v>1.552398009950248</v>
       </c>
       <c r="W20" t="n">
-        <v>0.01182398930980167</v>
+        <v>0.008</v>
       </c>
       <c r="X20" t="n">
-        <v>3.439446887907414</v>
+        <v>3.524000000000002</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.3329758666358266</v>
+        <v>0.3424278606965162</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.003062959580246</v>
+        <v>1.012</v>
       </c>
     </row>
     <row r="21">
@@ -2158,76 +2158,76 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.05922388059701485</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.192</v>
       </c>
       <c r="G21" t="n">
-        <v>2.400484063807938</v>
+        <v>2.455024875621882</v>
       </c>
       <c r="H21" t="n">
-        <v>0.04284920634920637</v>
+        <v>0.052</v>
       </c>
       <c r="I21" t="n">
-        <v>6.286237012987013</v>
+        <v>6.280000000000005</v>
       </c>
       <c r="J21" t="n">
-        <v>3.119777459467</v>
+        <v>3.359064676616899</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05297883597883601</v>
+        <v>0.06800000000000002</v>
       </c>
       <c r="L21" t="n">
-        <v>7.368112126870949</v>
+        <v>7.952000000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>3.22026072708345</v>
+        <v>3.459243781094521</v>
       </c>
       <c r="N21" t="n">
-        <v>0.155122807017544</v>
+        <v>0.188</v>
       </c>
       <c r="O21" t="n">
-        <v>7.480969765310938</v>
+        <v>7.984000000000005</v>
       </c>
       <c r="P21" t="n">
-        <v>2.969222643396762</v>
+        <v>3.078248756218892</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.07039139618551381</v>
+        <v>0.06800000000000002</v>
       </c>
       <c r="R21" t="n">
-        <v>6.688492857142858</v>
+        <v>6.856000000000002</v>
       </c>
       <c r="S21" t="n">
-        <v>2.572033283863989</v>
+        <v>2.540079601990041</v>
       </c>
       <c r="T21" t="n">
-        <v>0.04283043699220171</v>
+        <v>0.05600000000000001</v>
       </c>
       <c r="U21" t="n">
-        <v>5.611674176895224</v>
+        <v>5.576000000000001</v>
       </c>
       <c r="V21" t="n">
-        <v>1.578640242866746</v>
+        <v>1.517074626865671</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>3.578540714840714</v>
+        <v>3.591999999999999</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.3871971411699394</v>
+        <v>0.3692935323383073</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.17987673653257</v>
+        <v>1.172000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -2250,67 +2250,67 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.7644577114427856</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2.184</v>
       </c>
       <c r="J22" t="n">
-        <v>22.80518083217155</v>
+        <v>23.41245771144272</v>
       </c>
       <c r="K22" t="n">
-        <v>1.420157827375011</v>
+        <v>1.527999999999999</v>
       </c>
       <c r="L22" t="n">
-        <v>56.5962562909438</v>
+        <v>56.97599999999998</v>
       </c>
       <c r="M22" t="n">
-        <v>11.13525925925927</v>
+        <v>11.24340298507463</v>
       </c>
       <c r="N22" t="n">
-        <v>0.4725355699855699</v>
+        <v>0.456</v>
       </c>
       <c r="O22" t="n">
-        <v>24.01777004830922</v>
+        <v>24.25999999999999</v>
       </c>
       <c r="P22" t="n">
-        <v>3.721161265103044</v>
+        <v>3.920238805970138</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.04066666666666668</v>
+        <v>0.048</v>
       </c>
       <c r="R22" t="n">
-        <v>11.25726507936508</v>
+        <v>11.45200000000001</v>
       </c>
       <c r="S22" t="n">
-        <v>1.276568242122719</v>
+        <v>1.379164179104476</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>4.976076190476197</v>
+        <v>5.071999999999999</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4011631011608614</v>
+        <v>0.4373731343283575</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>2.444060317460316</v>
+        <v>2.336</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.05964350541663965</v>
+        <v>0.05966169154228847</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.5435193362193363</v>
+        <v>0.4879999999999998</v>
       </c>
     </row>
     <row r="23">
@@ -2324,76 +2324,76 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8559843007186284</v>
+        <v>0.9167960199004965</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>2.824593939393944</v>
+        <v>2.803999999999998</v>
       </c>
       <c r="G23" t="n">
-        <v>1.964658248440334</v>
+        <v>2.160776119402976</v>
       </c>
       <c r="H23" t="n">
-        <v>0.002222222222222223</v>
+        <v>0.012</v>
       </c>
       <c r="I23" t="n">
-        <v>5.416889599289598</v>
+        <v>5.928000000000003</v>
       </c>
       <c r="J23" t="n">
-        <v>2.134341077251036</v>
+        <v>2.429253731343275</v>
       </c>
       <c r="K23" t="n">
-        <v>0.06758788727612254</v>
+        <v>0.108</v>
       </c>
       <c r="L23" t="n">
-        <v>5.560086094034393</v>
+        <v>6.223999999999998</v>
       </c>
       <c r="M23" t="n">
-        <v>2.18757738844902</v>
+        <v>2.366527363184066</v>
       </c>
       <c r="N23" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.012</v>
       </c>
       <c r="O23" t="n">
-        <v>5.710189936007117</v>
+        <v>6.18</v>
       </c>
       <c r="P23" t="n">
-        <v>2.002991360657028</v>
+        <v>2.148577114427857</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.006177998472116119</v>
+        <v>0.016</v>
       </c>
       <c r="R23" t="n">
-        <v>4.955917460317462</v>
+        <v>5.300000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>1.758847089947088</v>
+        <v>1.795442786069649</v>
       </c>
       <c r="T23" t="n">
-        <v>0.003888888888888889</v>
+        <v>0.012</v>
       </c>
       <c r="U23" t="n">
-        <v>4.389164550264545</v>
+        <v>4.432000000000002</v>
       </c>
       <c r="V23" t="n">
-        <v>1.084546138355839</v>
+        <v>1.114606965174129</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>2.913960173160175</v>
+        <v>2.963999999999999</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.2682655768775161</v>
+        <v>0.2778905472636806</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.9490237137383686</v>
+        <v>0.9719999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -2407,76 +2407,76 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.1427064676616915</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.348</v>
       </c>
       <c r="G24" t="n">
-        <v>1.317923793729765</v>
+        <v>1.612258706467659</v>
       </c>
       <c r="H24" t="n">
-        <v>0.005333333333333334</v>
+        <v>0.016</v>
       </c>
       <c r="I24" t="n">
-        <v>3.647680952380954</v>
+        <v>4.183999999999997</v>
       </c>
       <c r="J24" t="n">
-        <v>4.156091577825152</v>
+        <v>4.226049751243769</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2556910644910644</v>
+        <v>0.212</v>
       </c>
       <c r="L24" t="n">
-        <v>10.44565276205276</v>
+        <v>9.676000000000002</v>
       </c>
       <c r="M24" t="n">
-        <v>4.686507985634488</v>
+        <v>4.934169154228847</v>
       </c>
       <c r="N24" t="n">
-        <v>0.2404050353155615</v>
+        <v>0.236</v>
       </c>
       <c r="O24" t="n">
-        <v>10.64463438803485</v>
+        <v>10.948</v>
       </c>
       <c r="P24" t="n">
-        <v>4.638077481538167</v>
+        <v>4.474368159203972</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.172439320542225</v>
+        <v>0.1560000000000001</v>
       </c>
       <c r="R24" t="n">
-        <v>10.45180277777776</v>
+        <v>9.796000000000003</v>
       </c>
       <c r="S24" t="n">
-        <v>3.678291677279398</v>
+        <v>3.497830845771138</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1997301880285371</v>
+        <v>0.276</v>
       </c>
       <c r="U24" t="n">
-        <v>8.327869675308218</v>
+        <v>7.671999999999998</v>
       </c>
       <c r="V24" t="n">
-        <v>1.947042106189708</v>
+        <v>1.991323383084574</v>
       </c>
       <c r="W24" t="n">
-        <v>0.05372869568068155</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="X24" t="n">
-        <v>4.550511773898323</v>
+        <v>4.468000000000002</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.4168864463100569</v>
+        <v>0.4560398009950234</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.265985977635167</v>
+        <v>1.312</v>
       </c>
     </row>
     <row r="25">
@@ -2508,58 +2508,58 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.259515422885571</v>
+        <v>1.2110447761194</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>3.440879365079359</v>
+        <v>3.324000000000002</v>
       </c>
       <c r="M25" t="n">
-        <v>4.106174567279043</v>
+        <v>3.975900497512435</v>
       </c>
       <c r="N25" t="n">
-        <v>0.07919530710835061</v>
+        <v>0.1400000000000001</v>
       </c>
       <c r="O25" t="n">
-        <v>9.869340829540826</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="P25" t="n">
-        <v>4.542393808734093</v>
+        <v>4.498527363184064</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.2270735449735448</v>
+        <v>0.2079999999999999</v>
       </c>
       <c r="R25" t="n">
-        <v>10.60271904761904</v>
+        <v>10.21999999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>4.102567045723756</v>
+        <v>3.958049751243777</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1487664264869069</v>
+        <v>0.1480000000000001</v>
       </c>
       <c r="U25" t="n">
-        <v>8.903237037037032</v>
+        <v>8.664000000000003</v>
       </c>
       <c r="V25" t="n">
-        <v>2.474853385546594</v>
+        <v>2.429114427860682</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0508210452401175</v>
+        <v>0.028</v>
       </c>
       <c r="X25" t="n">
-        <v>5.533978128148653</v>
+        <v>5.660000000000005</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.5929402023609653</v>
+        <v>0.6021890547263671</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.685261985509044</v>
+        <v>1.743999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -2573,76 +2573,76 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.03510447761194024</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="G26" t="n">
-        <v>2.30141220090025</v>
+        <v>2.09852736318407</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1035518518518517</v>
+        <v>0.036</v>
       </c>
       <c r="I26" t="n">
-        <v>6.129932251082253</v>
+        <v>5.664000000000002</v>
       </c>
       <c r="J26" t="n">
-        <v>3.024103644917816</v>
+        <v>2.820019900497506</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0935217610276433</v>
+        <v>0.1360000000000001</v>
       </c>
       <c r="L26" t="n">
-        <v>7.083729076587905</v>
+        <v>6.703999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>3.11985429077975</v>
+        <v>3.060975124378105</v>
       </c>
       <c r="N26" t="n">
-        <v>0.09656811594202903</v>
+        <v>0.1600000000000001</v>
       </c>
       <c r="O26" t="n">
-        <v>7.188675840064075</v>
+        <v>6.716000000000003</v>
       </c>
       <c r="P26" t="n">
-        <v>2.975685719550385</v>
+        <v>2.865014925373125</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.1124034598929335</v>
+        <v>0.1360000000000001</v>
       </c>
       <c r="R26" t="n">
-        <v>6.620733333333328</v>
+        <v>6.376000000000001</v>
       </c>
       <c r="S26" t="n">
-        <v>2.542480215870623</v>
+        <v>2.391900497512433</v>
       </c>
       <c r="T26" t="n">
-        <v>0.04248954518519738</v>
+        <v>0.1320000000000001</v>
       </c>
       <c r="U26" t="n">
-        <v>5.7625709415341</v>
+        <v>5.475999999999999</v>
       </c>
       <c r="V26" t="n">
-        <v>1.577122616711807</v>
+        <v>1.410606965174128</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="X26" t="n">
-        <v>3.602628138528135</v>
+        <v>3.316000000000001</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.3896275680414402</v>
+        <v>0.3601592039800991</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>1.19413965283083</v>
+        <v>1.136</v>
       </c>
     </row>
     <row r="27">
@@ -2656,76 +2656,76 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>20.50212271973459</v>
+        <v>19.71544278606959</v>
       </c>
       <c r="E27" t="n">
-        <v>1.105333333333335</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="F27" t="n">
-        <v>53.33199999999992</v>
+        <v>51.09600000000002</v>
       </c>
       <c r="G27" t="n">
-        <v>12.86924930901049</v>
+        <v>12.63952238805969</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7676888888888875</v>
+        <v>0.7239999999999998</v>
       </c>
       <c r="I27" t="n">
-        <v>27.56109999999999</v>
+        <v>27.18</v>
       </c>
       <c r="J27" t="n">
-        <v>4.946086235489208</v>
+        <v>5.31229850746267</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1660460317460314</v>
+        <v>0.176</v>
       </c>
       <c r="L27" t="n">
-        <v>12.31114285714286</v>
+        <v>13.15600000000001</v>
       </c>
       <c r="M27" t="n">
-        <v>1.9086726741473</v>
+        <v>2.097253731343282</v>
       </c>
       <c r="N27" t="n">
-        <v>0.009085714285714286</v>
+        <v>0.016</v>
       </c>
       <c r="O27" t="n">
-        <v>6.264825781625778</v>
+        <v>6.728000000000001</v>
       </c>
       <c r="P27" t="n">
-        <v>0.8149677485587919</v>
+        <v>0.8594427860696504</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0001212121212121212</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.557438095238094</v>
+        <v>3.807999999999999</v>
       </c>
       <c r="S27" t="n">
-        <v>0.3027406815130685</v>
+        <v>0.3268855721393025</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>1.530261375661374</v>
+        <v>1.672</v>
       </c>
       <c r="V27" t="n">
-        <v>0.1087838337490883</v>
+        <v>0.1252736318407959</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0.913502685206091</v>
+        <v>0.9439999999999997</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.01741516407859688</v>
+        <v>0.01757213930348257</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.220949503274503</v>
+        <v>0.2079999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -2748,67 +2748,67 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.4227263681592037</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="J28" t="n">
-        <v>7.059018005212023</v>
+        <v>7.546029850746261</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5856179727679728</v>
+        <v>0.3559999999999999</v>
       </c>
       <c r="L28" t="n">
-        <v>16.45445502645502</v>
+        <v>17.384</v>
       </c>
       <c r="M28" t="n">
-        <v>10.00151202716575</v>
+        <v>9.819144278606954</v>
       </c>
       <c r="N28" t="n">
-        <v>0.5882719718190306</v>
+        <v>0.472</v>
       </c>
       <c r="O28" t="n">
-        <v>21.68720634920635</v>
+        <v>21.01599999999999</v>
       </c>
       <c r="P28" t="n">
-        <v>7.413246751934905</v>
+        <v>7.459880597014916</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.3513286464775091</v>
+        <v>0.3079999999999998</v>
       </c>
       <c r="R28" t="n">
-        <v>15.3939656218051</v>
+        <v>15.33600000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>4.533948898098928</v>
+        <v>4.407104477611926</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2252428297540942</v>
+        <v>0.2</v>
       </c>
       <c r="U28" t="n">
-        <v>9.385303424111104</v>
+        <v>9.427999999999997</v>
       </c>
       <c r="V28" t="n">
-        <v>2.001651788498951</v>
+        <v>1.895363184079601</v>
       </c>
       <c r="W28" t="n">
-        <v>0.02409908567688859</v>
+        <v>0.004</v>
       </c>
       <c r="X28" t="n">
-        <v>4.488312495979912</v>
+        <v>4.463999999999999</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.3543159914712141</v>
+        <v>0.339184079601989</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.081333333333334</v>
+        <v>1.052</v>
       </c>
     </row>
     <row r="29">
@@ -2822,76 +2822,76 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.733251551764985</v>
+        <v>1.753731343283581</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001333333333333334</v>
+        <v>0.004</v>
       </c>
       <c r="F29" t="n">
-        <v>5.101747619047616</v>
+        <v>4.852000000000002</v>
       </c>
       <c r="G29" t="n">
-        <v>2.073613251204291</v>
+        <v>2.279741293532333</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="I29" t="n">
-        <v>5.663376900876899</v>
+        <v>5.948000000000002</v>
       </c>
       <c r="J29" t="n">
-        <v>2.171830332992528</v>
+        <v>2.358169154228846</v>
       </c>
       <c r="K29" t="n">
-        <v>0.03631269841269843</v>
+        <v>0.016</v>
       </c>
       <c r="L29" t="n">
-        <v>5.549518288854826</v>
+        <v>5.747999999999998</v>
       </c>
       <c r="M29" t="n">
-        <v>2.115243063441068</v>
+        <v>2.243084577114425</v>
       </c>
       <c r="N29" t="n">
-        <v>0.008</v>
+        <v>0.036</v>
       </c>
       <c r="O29" t="n">
-        <v>5.276468789873123</v>
+        <v>5.375999999999999</v>
       </c>
       <c r="P29" t="n">
-        <v>1.956302337518747</v>
+        <v>2.063164179104468</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0007653000594177064</v>
+        <v>0.004</v>
       </c>
       <c r="R29" t="n">
-        <v>4.965517460317461</v>
+        <v>5.120000000000002</v>
       </c>
       <c r="S29" t="n">
-        <v>1.617559772565742</v>
+        <v>1.664318407960198</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="U29" t="n">
-        <v>3.986733862433862</v>
+        <v>4.052000000000001</v>
       </c>
       <c r="V29" t="n">
-        <v>1.031514988549316</v>
+        <v>1.060477611940297</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>2.880000384800388</v>
+        <v>2.819999999999999</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.2487876332622592</v>
+        <v>0.2536119402985068</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.9769681581828135</v>
+        <v>0.9679999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -2905,76 +2905,76 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.03753233830845768</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G30" t="n">
-        <v>4.920982642343827</v>
+        <v>4.41862686567164</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3973714285714277</v>
+        <v>0.3200000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>11.23021428571428</v>
+        <v>10.25199999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>7.165947433467576</v>
+        <v>7.111800995024871</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5862863506863504</v>
+        <v>0.6720000000000003</v>
       </c>
       <c r="L30" t="n">
-        <v>15.01188782104834</v>
+        <v>14.87600000000001</v>
       </c>
       <c r="M30" t="n">
-        <v>6.80289526928131</v>
+        <v>6.760099502487554</v>
       </c>
       <c r="N30" t="n">
-        <v>0.5792622546544748</v>
+        <v>0.6360000000000003</v>
       </c>
       <c r="O30" t="n">
-        <v>14.14118005741535</v>
+        <v>13.888</v>
       </c>
       <c r="P30" t="n">
-        <v>4.965600850860097</v>
+        <v>5.195960199004968</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.3178882563904611</v>
+        <v>0.3759999999999999</v>
       </c>
       <c r="R30" t="n">
-        <v>10.00280078567071</v>
+        <v>10.36</v>
       </c>
       <c r="S30" t="n">
-        <v>3.270599932945336</v>
+        <v>3.508935323383073</v>
       </c>
       <c r="T30" t="n">
-        <v>0.1800806989252894</v>
+        <v>0.204</v>
       </c>
       <c r="U30" t="n">
-        <v>6.87851892833561</v>
+        <v>7.420000000000001</v>
       </c>
       <c r="V30" t="n">
-        <v>1.765637937519147</v>
+        <v>1.736039800995022</v>
       </c>
       <c r="W30" t="n">
-        <v>0.05902203713517525</v>
+        <v>0.036</v>
       </c>
       <c r="X30" t="n">
-        <v>4.122128410856138</v>
+        <v>4.02</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.3491878783333315</v>
+        <v>0.3321194029850734</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.033128571428572</v>
+        <v>1.032</v>
       </c>
     </row>
     <row r="31">
@@ -3006,58 +3006,58 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>16.05174772589632</v>
+        <v>13.78407960199002</v>
       </c>
       <c r="K31" t="n">
-        <v>0.8929512487856134</v>
+        <v>0.7280000000000004</v>
       </c>
       <c r="L31" t="n">
-        <v>40.10815720880429</v>
+        <v>33.39999999999999</v>
       </c>
       <c r="M31" t="n">
-        <v>13.00453347547976</v>
+        <v>13.20565174129351</v>
       </c>
       <c r="N31" t="n">
-        <v>0.6623347985347986</v>
+        <v>0.6919999999999998</v>
       </c>
       <c r="O31" t="n">
-        <v>26.78403936047848</v>
+        <v>27.74</v>
       </c>
       <c r="P31" t="n">
-        <v>6.127751043733467</v>
+        <v>6.44533333333333</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.1193777777777776</v>
+        <v>0.1880000000000001</v>
       </c>
       <c r="R31" t="n">
-        <v>14.01270567619515</v>
+        <v>13.96</v>
       </c>
       <c r="S31" t="n">
-        <v>2.419518597488729</v>
+        <v>2.728437810945262</v>
       </c>
       <c r="T31" t="n">
-        <v>0.03635802469135804</v>
+        <v>0.07600000000000003</v>
       </c>
       <c r="U31" t="n">
-        <v>6.614182539682528</v>
+        <v>7.191999999999999</v>
       </c>
       <c r="V31" t="n">
-        <v>0.7965364842454383</v>
+        <v>0.9215522388059694</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>2.656401587301589</v>
+        <v>2.968000000000001</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.09632198531153743</v>
+        <v>0.1222885572139302</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.5313000000000002</v>
+        <v>0.6400000000000005</v>
       </c>
     </row>
     <row r="32">
@@ -3080,67 +3080,67 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.1904079601990048</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.508</v>
       </c>
       <c r="J32" t="n">
-        <v>9.18604195688224</v>
+        <v>9.890825870646754</v>
       </c>
       <c r="K32" t="n">
-        <v>0.3440666666666667</v>
+        <v>0.3239999999999999</v>
       </c>
       <c r="L32" t="n">
-        <v>25.33978095238092</v>
+        <v>27.11200000000001</v>
       </c>
       <c r="M32" t="n">
-        <v>19.10150326485747</v>
+        <v>17.96967164179104</v>
       </c>
       <c r="N32" t="n">
-        <v>1.098329004329004</v>
+        <v>1.132</v>
       </c>
       <c r="O32" t="n">
-        <v>39.04021746031749</v>
+        <v>37.52399999999999</v>
       </c>
       <c r="P32" t="n">
-        <v>7.840023654813941</v>
+        <v>7.649910447761181</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.5350899231487468</v>
+        <v>0.4319999999999998</v>
       </c>
       <c r="R32" t="n">
-        <v>17.06720079365081</v>
+        <v>17.26800000000001</v>
       </c>
       <c r="S32" t="n">
-        <v>2.905443781094523</v>
+        <v>2.861253731343277</v>
       </c>
       <c r="T32" t="n">
-        <v>0.06553939393939394</v>
+        <v>0.048</v>
       </c>
       <c r="U32" t="n">
-        <v>8.062393650793654</v>
+        <v>8.283999999999997</v>
       </c>
       <c r="V32" t="n">
-        <v>0.8501572139303467</v>
+        <v>0.8819701492537303</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>3.039263492063499</v>
+        <v>3.239999999999998</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.1164063492063492</v>
+        <v>0.1213731343283581</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.7096333333333331</v>
+        <v>0.7200000000000004</v>
       </c>
     </row>
     <row r="33">
@@ -3163,67 +3163,67 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>6.280945826423434</v>
+        <v>7.168537313432831</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2502222222222222</v>
+        <v>0.3199999999999997</v>
       </c>
       <c r="I33" t="n">
-        <v>16.80760000000001</v>
+        <v>19.10000000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>16.4405213498401</v>
+        <v>17.65229850746268</v>
       </c>
       <c r="K33" t="n">
-        <v>1.096800318870442</v>
+        <v>1.148</v>
       </c>
       <c r="L33" t="n">
-        <v>38.5442081764174</v>
+        <v>39.06799999999996</v>
       </c>
       <c r="M33" t="n">
-        <v>9.50981913126814</v>
+        <v>9.156557213930347</v>
       </c>
       <c r="N33" t="n">
-        <v>0.5401293104744717</v>
+        <v>0.4959999999999997</v>
       </c>
       <c r="O33" t="n">
-        <v>19.64489385059385</v>
+        <v>19.46800000000001</v>
       </c>
       <c r="P33" t="n">
-        <v>4.065161738924419</v>
+        <v>3.877094527363178</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.1595110667110664</v>
+        <v>0.1520000000000001</v>
       </c>
       <c r="R33" t="n">
-        <v>10.00648692810458</v>
+        <v>9.955999999999996</v>
       </c>
       <c r="S33" t="n">
-        <v>1.573439386401327</v>
+        <v>1.549512437810943</v>
       </c>
       <c r="T33" t="n">
-        <v>0.003397109120221248</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>5.15702751322751</v>
+        <v>5.040000000000003</v>
       </c>
       <c r="V33" t="n">
-        <v>0.5092985368970442</v>
+        <v>0.4976716417910441</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>2.084586039886038</v>
+        <v>2.176000000000001</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.07339321825217335</v>
+        <v>0.07096517412935315</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.4922806399482871</v>
+        <v>0.5080000000000002</v>
       </c>
     </row>
     <row r="34">
@@ -3237,76 +3237,76 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>6.697178551685995</v>
+        <v>6.303781094527351</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2521904761904759</v>
+        <v>0.256</v>
       </c>
       <c r="F34" t="n">
-        <v>15.86502222222225</v>
+        <v>14.596</v>
       </c>
       <c r="G34" t="n">
-        <v>9.704899944720841</v>
+        <v>9.504835820895508</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5257777777777778</v>
+        <v>0.5039999999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>21.79019999999998</v>
+        <v>20.51999999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>7.957609018759009</v>
+        <v>7.787442786069638</v>
       </c>
       <c r="K34" t="n">
-        <v>0.4233682539682541</v>
+        <v>0.4039999999999997</v>
       </c>
       <c r="L34" t="n">
-        <v>16.65136984126984</v>
+        <v>16.144</v>
       </c>
       <c r="M34" t="n">
-        <v>5.020494519466148</v>
+        <v>5.217512437810938</v>
       </c>
       <c r="N34" t="n">
-        <v>0.2298207792207791</v>
+        <v>0.2799999999999999</v>
       </c>
       <c r="O34" t="n">
-        <v>10.78308148148148</v>
+        <v>11.14</v>
       </c>
       <c r="P34" t="n">
-        <v>3.126294629983297</v>
+        <v>3.097870646766161</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.06297105378281846</v>
+        <v>0.116</v>
       </c>
       <c r="R34" t="n">
-        <v>7.112682112332113</v>
+        <v>6.956</v>
       </c>
       <c r="S34" t="n">
-        <v>1.5957864608581</v>
+        <v>1.654587064676612</v>
       </c>
       <c r="T34" t="n">
-        <v>0.003213804713804714</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>4.299360787360789</v>
+        <v>4.363999999999998</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6235993050619913</v>
+        <v>0.6842587064676615</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0007813852813852815</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>1.94448888888889</v>
+        <v>2.144</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.09880315091210616</v>
+        <v>0.1093731343283582</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.4219999999999995</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="35">
@@ -3320,76 +3320,76 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.2222288557213929</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>3.210963191976618</v>
+        <v>3.354129353233823</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1038554112554111</v>
+        <v>0.07200000000000002</v>
       </c>
       <c r="I35" t="n">
-        <v>7.829218334606571</v>
+        <v>8.172000000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>4.727934953015628</v>
+        <v>4.772457711442772</v>
       </c>
       <c r="K35" t="n">
-        <v>0.3053931808931813</v>
+        <v>0.2639999999999999</v>
       </c>
       <c r="L35" t="n">
-        <v>10.65696942871943</v>
+        <v>10.84</v>
       </c>
       <c r="M35" t="n">
-        <v>4.741938033953593</v>
+        <v>4.763820895522374</v>
       </c>
       <c r="N35" t="n">
-        <v>0.2422717019822281</v>
+        <v>0.2399999999999998</v>
       </c>
       <c r="O35" t="n">
-        <v>10.64033681153727</v>
+        <v>10.772</v>
       </c>
       <c r="P35" t="n">
-        <v>4.280409662933084</v>
+        <v>4.104636815920385</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.2252639207911907</v>
+        <v>0.2519999999999999</v>
       </c>
       <c r="R35" t="n">
-        <v>8.943552767363354</v>
+        <v>8.527999999999995</v>
       </c>
       <c r="S35" t="n">
-        <v>3.197528614932226</v>
+        <v>3.03966169154228</v>
       </c>
       <c r="T35" t="n">
-        <v>0.1785641043266547</v>
+        <v>0.176</v>
       </c>
       <c r="U35" t="n">
-        <v>6.747939414946807</v>
+        <v>6.676</v>
       </c>
       <c r="V35" t="n">
-        <v>1.775451343930314</v>
+        <v>1.735223880597014</v>
       </c>
       <c r="W35" t="n">
-        <v>0.04829414414526045</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="X35" t="n">
-        <v>4.153874659052386</v>
+        <v>4.140000000000002</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.3892488232358005</v>
+        <v>0.3835820895522374</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>1.18387673653257</v>
+        <v>1.152000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3421,58 +3421,58 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.691398175787719</v>
+        <v>2.726407960198997</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1814666666666663</v>
+        <v>0.1520000000000001</v>
       </c>
       <c r="L36" t="n">
-        <v>6.830533333333343</v>
+        <v>6.775999999999997</v>
       </c>
       <c r="M36" t="n">
-        <v>9.591750872621018</v>
+        <v>9.483422885572125</v>
       </c>
       <c r="N36" t="n">
-        <v>0.5732080808080807</v>
+        <v>0.728</v>
       </c>
       <c r="O36" t="n">
-        <v>21.51772857142854</v>
+        <v>21.14800000000001</v>
       </c>
       <c r="P36" t="n">
-        <v>8.97940110915285</v>
+        <v>8.893592039800984</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.6376395451708814</v>
+        <v>0.6280000000000006</v>
       </c>
       <c r="R36" t="n">
-        <v>18.30285108225108</v>
+        <v>18.00399999999999</v>
       </c>
       <c r="S36" t="n">
-        <v>5.44080517537529</v>
+        <v>5.772656716417898</v>
       </c>
       <c r="T36" t="n">
-        <v>0.217020281122621</v>
+        <v>0.2199999999999999</v>
       </c>
       <c r="U36" t="n">
-        <v>11.29356515595875</v>
+        <v>11.872</v>
       </c>
       <c r="V36" t="n">
-        <v>2.610183068080755</v>
+        <v>2.545273631840784</v>
       </c>
       <c r="W36" t="n">
-        <v>0.1023812740423587</v>
+        <v>0.1280000000000001</v>
       </c>
       <c r="X36" t="n">
-        <v>5.828314553333374</v>
+        <v>5.860000000000001</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.450665037905709</v>
+        <v>0.4416915422885564</v>
       </c>
       <c r="Z36" t="n">
         <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>1.498545604395605</v>
+        <v>1.404</v>
       </c>
     </row>
     <row r="37">
@@ -3486,76 +3486,76 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9546114980652285</v>
+        <v>0.9813532338308449</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>3.12671880711881</v>
+        <v>3.080000000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>2.857219563557862</v>
+        <v>2.59036815920397</v>
       </c>
       <c r="H37" t="n">
-        <v>0.04027840307840309</v>
+        <v>0.052</v>
       </c>
       <c r="I37" t="n">
-        <v>7.349640923842242</v>
+        <v>7.080000000000002</v>
       </c>
       <c r="J37" t="n">
-        <v>3.189106730858958</v>
+        <v>3.008039800995011</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0446839345839346</v>
+        <v>0.06400000000000002</v>
       </c>
       <c r="L37" t="n">
-        <v>7.555312217412212</v>
+        <v>7.364000000000002</v>
       </c>
       <c r="M37" t="n">
-        <v>3.125611900628902</v>
+        <v>2.914149253731333</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1393777777777778</v>
+        <v>0.06800000000000002</v>
       </c>
       <c r="O37" t="n">
-        <v>6.797027849927847</v>
+        <v>6.768000000000004</v>
       </c>
       <c r="P37" t="n">
-        <v>2.920803830962896</v>
+        <v>2.675482587064672</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.04480901930313694</v>
+        <v>0.016</v>
       </c>
       <c r="R37" t="n">
-        <v>6.58850396825397</v>
+        <v>6.248000000000004</v>
       </c>
       <c r="S37" t="n">
-        <v>2.333657472774951</v>
+        <v>2.145014925373125</v>
       </c>
       <c r="T37" t="n">
-        <v>0.00963084344849051</v>
+        <v>0.012</v>
       </c>
       <c r="U37" t="n">
-        <v>4.987350328131904</v>
+        <v>4.916000000000001</v>
       </c>
       <c r="V37" t="n">
-        <v>1.466285464949644</v>
+        <v>1.328019900497511</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>3.313748136658663</v>
+        <v>3.236000000000001</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.3339974255081318</v>
+        <v>0.3238208955223872</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>1.00079629291358</v>
+        <v>1.012</v>
       </c>
     </row>
     <row r="38">
@@ -3569,76 +3569,76 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.707071310116087</v>
+        <v>6.808437810945262</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2894666666666663</v>
+        <v>0.28</v>
       </c>
       <c r="F38" t="n">
-        <v>17.48711111111113</v>
+        <v>18.45599999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>17.96447097844108</v>
+        <v>17.17339303482586</v>
       </c>
       <c r="H38" t="n">
-        <v>1.147692185592186</v>
+        <v>1.136</v>
       </c>
       <c r="I38" t="n">
-        <v>38.54063273948273</v>
+        <v>36.19600000000002</v>
       </c>
       <c r="J38" t="n">
-        <v>9.972282585090412</v>
+        <v>9.546925373134313</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5989977392977389</v>
+        <v>0.552</v>
       </c>
       <c r="L38" t="n">
-        <v>19.66289104599104</v>
+        <v>19.148</v>
       </c>
       <c r="M38" t="n">
-        <v>4.2385603555096</v>
+        <v>4.301950248756206</v>
       </c>
       <c r="N38" t="n">
-        <v>0.1755333333333334</v>
+        <v>0.1520000000000001</v>
       </c>
       <c r="O38" t="n">
-        <v>10.33216682946684</v>
+        <v>10.184</v>
       </c>
       <c r="P38" t="n">
-        <v>1.68624720840243</v>
+        <v>1.843721393034824</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.004191375291375293</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>5.341096825396822</v>
+        <v>5.507999999999999</v>
       </c>
       <c r="S38" t="n">
-        <v>0.7005195806680871</v>
+        <v>0.7663681592039794</v>
       </c>
       <c r="T38" t="n">
-        <v>6.34920634920635e-05</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.417719388019387</v>
+        <v>2.628000000000002</v>
       </c>
       <c r="V38" t="n">
-        <v>0.2413120883676842</v>
+        <v>0.2707661691542279</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1.228823964923965</v>
+        <v>1.272</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.03037563252115479</v>
+        <v>0.03908457711442771</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.2946791888773345</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="39">
@@ -3652,76 +3652,76 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>4.495319118692233</v>
+        <v>4.41866666666665</v>
       </c>
       <c r="E39" t="n">
-        <v>0.07066666666666667</v>
+        <v>0.07600000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>9.745244444444433</v>
+        <v>9.604000000000005</v>
       </c>
       <c r="G39" t="n">
-        <v>6.738225428413483</v>
+        <v>7.001452736318402</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2460000000000001</v>
+        <v>0.2759999999999999</v>
       </c>
       <c r="I39" t="n">
-        <v>14.8929380952381</v>
+        <v>15.27999999999999</v>
       </c>
       <c r="J39" t="n">
-        <v>6.626259369817576</v>
+        <v>6.581154228855715</v>
       </c>
       <c r="K39" t="n">
-        <v>0.2146666666666662</v>
+        <v>0.2359999999999999</v>
       </c>
       <c r="L39" t="n">
-        <v>14.44169956709956</v>
+        <v>13.988</v>
       </c>
       <c r="M39" t="n">
-        <v>5.331388644081178</v>
+        <v>5.248417910447747</v>
       </c>
       <c r="N39" t="n">
-        <v>0.3157333333333333</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="O39" t="n">
-        <v>11.63414814814814</v>
+        <v>11.388</v>
       </c>
       <c r="P39" t="n">
-        <v>3.37544815504677</v>
+        <v>3.682248756218895</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.1893300847300844</v>
+        <v>0.196</v>
       </c>
       <c r="R39" t="n">
-        <v>7.443307797757797</v>
+        <v>8.063999999999997</v>
       </c>
       <c r="S39" t="n">
-        <v>2.363341646414899</v>
+        <v>2.280736318407946</v>
       </c>
       <c r="T39" t="n">
-        <v>0.04878559958559961</v>
+        <v>0.044</v>
       </c>
       <c r="U39" t="n">
-        <v>5.39234490588531</v>
+        <v>5.247999999999998</v>
       </c>
       <c r="V39" t="n">
-        <v>1.109991301788316</v>
+        <v>1.050228855721393</v>
       </c>
       <c r="W39" t="n">
-        <v>0.02204936061381075</v>
+        <v>0.012</v>
       </c>
       <c r="X39" t="n">
-        <v>3.1177351000851</v>
+        <v>3.036</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.1932876806443965</v>
+        <v>0.1889154228855716</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.7633619047619048</v>
+        <v>0.7240000000000003</v>
       </c>
     </row>
     <row r="40">
@@ -3744,67 +3744,67 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.07211940298507456</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.208</v>
       </c>
       <c r="J40" t="n">
-        <v>2.27825996209428</v>
+        <v>2.252776119402976</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>6.470693739593741</v>
+        <v>6.423999999999996</v>
       </c>
       <c r="M40" t="n">
-        <v>3.028152750860298</v>
+        <v>3.055402985074612</v>
       </c>
       <c r="N40" t="n">
-        <v>0.02800779848171152</v>
+        <v>0.036</v>
       </c>
       <c r="O40" t="n">
-        <v>7.892950946439182</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="P40" t="n">
-        <v>3.119501294393826</v>
+        <v>3.179283582089547</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.09920496949444305</v>
+        <v>0.1280000000000001</v>
       </c>
       <c r="R40" t="n">
-        <v>7.738295299145303</v>
+        <v>7.935999999999996</v>
       </c>
       <c r="S40" t="n">
-        <v>2.758646612177195</v>
+        <v>2.716915422885561</v>
       </c>
       <c r="T40" t="n">
-        <v>0.02911983458390783</v>
+        <v>0.116</v>
       </c>
       <c r="U40" t="n">
-        <v>6.602577777777769</v>
+        <v>6.532000000000002</v>
       </c>
       <c r="V40" t="n">
-        <v>1.786766157308692</v>
+        <v>1.724995024875621</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>4.174770675231204</v>
+        <v>4.151999999999999</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4420749624891401</v>
+        <v>0.4248358208955211</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>1.382562409046892</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="41">
@@ -3836,58 +3836,58 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.1553233830845768</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="M41" t="n">
-        <v>7.03179789939193</v>
+        <v>7.176776119402977</v>
       </c>
       <c r="N41" t="n">
-        <v>0.3544092352092353</v>
+        <v>0.3639999999999999</v>
       </c>
       <c r="O41" t="n">
-        <v>16.95862222222222</v>
+        <v>17.172</v>
       </c>
       <c r="P41" t="n">
-        <v>9.360305493695531</v>
+        <v>9.329810945273625</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.3891100048100049</v>
+        <v>0.5079999999999999</v>
       </c>
       <c r="R41" t="n">
-        <v>19.86456666666665</v>
+        <v>20.004</v>
       </c>
       <c r="S41" t="n">
-        <v>6.537368544265942</v>
+        <v>6.591124378109445</v>
       </c>
       <c r="T41" t="n">
-        <v>0.1704587640603914</v>
+        <v>0.26</v>
       </c>
       <c r="U41" t="n">
-        <v>13.76518890749773</v>
+        <v>13.74000000000001</v>
       </c>
       <c r="V41" t="n">
-        <v>3.127386000552782</v>
+        <v>3.109791044776105</v>
       </c>
       <c r="W41" t="n">
-        <v>0.1139206389413819</v>
+        <v>0.1400000000000001</v>
       </c>
       <c r="X41" t="n">
-        <v>6.984121548821549</v>
+        <v>6.951999999999995</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.568115434427374</v>
+        <v>0.5514825870646762</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>1.611147802197802</v>
+        <v>1.588</v>
       </c>
     </row>
     <row r="42">
@@ -3901,76 +3901,76 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.08244776119402958</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.212</v>
       </c>
       <c r="G42" t="n">
-        <v>11.17493364921422</v>
+        <v>11.06183084577113</v>
       </c>
       <c r="H42" t="n">
-        <v>1.081703703703703</v>
+        <v>0.764</v>
       </c>
       <c r="I42" t="n">
-        <v>25.75754603174602</v>
+        <v>25.02400000000001</v>
       </c>
       <c r="J42" t="n">
-        <v>12.86287469039021</v>
+        <v>12.53647761194029</v>
       </c>
       <c r="K42" t="n">
-        <v>1.161556812318514</v>
+        <v>1.004000000000001</v>
       </c>
       <c r="L42" t="n">
-        <v>26.49899263282895</v>
+        <v>25.764</v>
       </c>
       <c r="M42" t="n">
-        <v>7.943600724261914</v>
+        <v>7.651203980099499</v>
       </c>
       <c r="N42" t="n">
-        <v>0.6665915475837677</v>
+        <v>0.4959999999999999</v>
       </c>
       <c r="O42" t="n">
-        <v>15.7774155881156</v>
+        <v>15.472</v>
       </c>
       <c r="P42" t="n">
-        <v>4.009260792359458</v>
+        <v>3.885611940298501</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.3308927148851912</v>
+        <v>0.24</v>
       </c>
       <c r="R42" t="n">
-        <v>8.771831907947126</v>
+        <v>8.716000000000001</v>
       </c>
       <c r="S42" t="n">
-        <v>1.704202724472874</v>
+        <v>1.810865671641787</v>
       </c>
       <c r="T42" t="n">
-        <v>0.05761344579315461</v>
+        <v>0.048</v>
       </c>
       <c r="U42" t="n">
-        <v>4.511365079365073</v>
+        <v>4.732000000000003</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6062271223248827</v>
+        <v>0.6571940298507453</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>2.052562515262513</v>
+        <v>2.200000000000001</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.08427220642817648</v>
+        <v>0.09812935323383069</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.4265404725992956</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="43">
@@ -3984,76 +3984,76 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.03753233830845768</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G43" t="n">
-        <v>4.919801879491422</v>
+        <v>4.397990049751241</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3893714285714277</v>
+        <v>0.2960000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>11.23021428571428</v>
+        <v>10.23999999999999</v>
       </c>
       <c r="J43" t="n">
-        <v>7.10808709231619</v>
+        <v>7.090368159203972</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4753142857142859</v>
+        <v>0.5520000000000002</v>
       </c>
       <c r="L43" t="n">
-        <v>15.03335448771501</v>
+        <v>15.092</v>
       </c>
       <c r="M43" t="n">
-        <v>6.697523705981881</v>
+        <v>6.691462686567155</v>
       </c>
       <c r="N43" t="n">
-        <v>0.3702242763772176</v>
+        <v>0.532</v>
       </c>
       <c r="O43" t="n">
-        <v>14.13364672408202</v>
+        <v>13.86</v>
       </c>
       <c r="P43" t="n">
-        <v>4.95175673809061</v>
+        <v>5.100537313432827</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.1732077272766806</v>
+        <v>0.308</v>
       </c>
       <c r="R43" t="n">
-        <v>10.07313411900405</v>
+        <v>10.432</v>
       </c>
       <c r="S43" t="n">
-        <v>3.270599932945336</v>
+        <v>3.459661691542276</v>
       </c>
       <c r="T43" t="n">
-        <v>0.1083870802568635</v>
+        <v>0.1520000000000001</v>
       </c>
       <c r="U43" t="n">
-        <v>6.874350674367356</v>
+        <v>7.400000000000003</v>
       </c>
       <c r="V43" t="n">
-        <v>1.768453857917157</v>
+        <v>1.711144278606961</v>
       </c>
       <c r="W43" t="n">
-        <v>0.05307808624194182</v>
+        <v>0.032</v>
       </c>
       <c r="X43" t="n">
-        <v>4.170962047589773</v>
+        <v>4.080000000000001</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.3491878783333315</v>
+        <v>0.3282189054726357</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>1.032850793650794</v>
+        <v>1.036</v>
       </c>
     </row>
     <row r="44">
@@ -4085,58 +4085,58 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.157651741293532</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>0.384</v>
       </c>
       <c r="M44" t="n">
-        <v>10.57251943983783</v>
+        <v>11.56053731343283</v>
       </c>
       <c r="N44" t="n">
-        <v>0.5395921855921856</v>
+        <v>0.5439999999999999</v>
       </c>
       <c r="O44" t="n">
-        <v>23.82037777777781</v>
+        <v>25.876</v>
       </c>
       <c r="P44" t="n">
-        <v>12.03371764594352</v>
+        <v>11.81717412935322</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.6339558952743161</v>
+        <v>0.7320000000000003</v>
       </c>
       <c r="R44" t="n">
-        <v>25.05616111749149</v>
+        <v>24.40799999999999</v>
       </c>
       <c r="S44" t="n">
-        <v>6.744952994586215</v>
+        <v>6.540875621890536</v>
       </c>
       <c r="T44" t="n">
-        <v>0.3203915655126973</v>
+        <v>0.4119999999999999</v>
       </c>
       <c r="U44" t="n">
-        <v>13.81468436759319</v>
+        <v>13.38800000000001</v>
       </c>
       <c r="V44" t="n">
-        <v>2.625836010424061</v>
+        <v>2.47012935323382</v>
       </c>
       <c r="W44" t="n">
-        <v>0.0519920898984057</v>
+        <v>0.044</v>
       </c>
       <c r="X44" t="n">
-        <v>6.218029466829471</v>
+        <v>5.995999999999999</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4033731343283571</v>
+        <v>0.379980099502487</v>
       </c>
       <c r="Z44" t="n">
         <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>1.155285714285716</v>
+        <v>1.156000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -4150,76 +4150,76 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>10.4033167495854</v>
+        <v>11.05721393034825</v>
       </c>
       <c r="E45" t="n">
-        <v>0.427822222222222</v>
+        <v>0.4239999999999998</v>
       </c>
       <c r="F45" t="n">
-        <v>26.66844444444449</v>
+        <v>28.888</v>
       </c>
       <c r="G45" t="n">
-        <v>12.40970149253728</v>
+        <v>12.25225870646765</v>
       </c>
       <c r="H45" t="n">
-        <v>0.543</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="I45" t="n">
-        <v>25.69208333333331</v>
+        <v>25.404</v>
       </c>
       <c r="J45" t="n">
-        <v>7.495682255389707</v>
+        <v>7.350945273631835</v>
       </c>
       <c r="K45" t="n">
-        <v>0.296911111111111</v>
+        <v>0.2999999999999999</v>
       </c>
       <c r="L45" t="n">
-        <v>15.85541851851851</v>
+        <v>15.788</v>
       </c>
       <c r="M45" t="n">
-        <v>4.123755389718064</v>
+        <v>3.795860696517402</v>
       </c>
       <c r="N45" t="n">
-        <v>0.1203922077922078</v>
+        <v>0.1520000000000001</v>
       </c>
       <c r="O45" t="n">
-        <v>8.994304280904283</v>
+        <v>8.875999999999999</v>
       </c>
       <c r="P45" t="n">
-        <v>1.974924378109451</v>
+        <v>1.793671641791041</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.04008863990040461</v>
+        <v>0.016</v>
       </c>
       <c r="R45" t="n">
-        <v>5.043893001443003</v>
+        <v>4.844000000000002</v>
       </c>
       <c r="S45" t="n">
-        <v>0.8364679933664999</v>
+        <v>0.8023482587064666</v>
       </c>
       <c r="T45" t="n">
-        <v>6.34920634920635e-05</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>2.74588888888889</v>
+        <v>2.756</v>
       </c>
       <c r="V45" t="n">
-        <v>0.3158761194029844</v>
+        <v>0.3001990049751239</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>1.312133333333335</v>
+        <v>1.264</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.0471502110658827</v>
+        <v>0.04535323383084574</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.3293301587301583</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="46">
@@ -4251,58 +4251,58 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>6.308155650319818</v>
+        <v>6.114646766169144</v>
       </c>
       <c r="K46" t="n">
-        <v>0.3344464646464653</v>
+        <v>0.408</v>
       </c>
       <c r="L46" t="n">
-        <v>15.28371904761905</v>
+        <v>14.824</v>
       </c>
       <c r="M46" t="n">
-        <v>16.64429079853257</v>
+        <v>16.04025870646765</v>
       </c>
       <c r="N46" t="n">
-        <v>1.191320634920635</v>
+        <v>1.375999999999999</v>
       </c>
       <c r="O46" t="n">
-        <v>36.9025230880231</v>
+        <v>35.47199999999998</v>
       </c>
       <c r="P46" t="n">
-        <v>9.423267297716668</v>
+        <v>9.039024875621875</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.468648415087801</v>
+        <v>0.516</v>
       </c>
       <c r="R46" t="n">
-        <v>19.41166558327294</v>
+        <v>18.72800000000001</v>
       </c>
       <c r="S46" t="n">
-        <v>3.795262437810936</v>
+        <v>3.854865671641783</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2313488166367183</v>
+        <v>0.3040000000000002</v>
       </c>
       <c r="U46" t="n">
-        <v>9.313244729344735</v>
+        <v>9.203999999999997</v>
       </c>
       <c r="V46" t="n">
-        <v>1.262996683250414</v>
+        <v>1.319084577114427</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>3.833898412698411</v>
+        <v>3.944</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.1584274816394217</v>
+        <v>0.1737910447761188</v>
       </c>
       <c r="Z46" t="n">
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.8890290043290036</v>
+        <v>0.9079999999999998</v>
       </c>
     </row>
     <row r="47">
@@ -4325,67 +4325,67 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>12.4628999447208</v>
+        <v>11.83673631840795</v>
       </c>
       <c r="H47" t="n">
-        <v>0.618666666666666</v>
+        <v>0.6880000000000002</v>
       </c>
       <c r="I47" t="n">
-        <v>38.94729999999997</v>
+        <v>36.88799999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>19.8874034087577</v>
+        <v>19.29072636815918</v>
       </c>
       <c r="K47" t="n">
-        <v>0.7432639386012456</v>
+        <v>1.512</v>
       </c>
       <c r="L47" t="n">
-        <v>41.84526019534192</v>
+        <v>41.16800000000003</v>
       </c>
       <c r="M47" t="n">
-        <v>6.367581836847505</v>
+        <v>6.633353233830842</v>
       </c>
       <c r="N47" t="n">
-        <v>0.2190261904761905</v>
+        <v>0.2159999999999999</v>
       </c>
       <c r="O47" t="n">
-        <v>15.63185983645984</v>
+        <v>15.57599999999999</v>
       </c>
       <c r="P47" t="n">
-        <v>2.157158335307576</v>
+        <v>2.262248756218892</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>7.613447979797979</v>
+        <v>7.428000000000001</v>
       </c>
       <c r="S47" t="n">
-        <v>0.8298640448550891</v>
+        <v>0.8559800995024868</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>3.785044033744033</v>
+        <v>3.847999999999998</v>
       </c>
       <c r="V47" t="n">
-        <v>0.2692690734638485</v>
+        <v>0.2642985074626855</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>1.552198260998261</v>
+        <v>1.48</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.03829814165446292</v>
+        <v>0.03904477611940291</v>
       </c>
       <c r="Z47" t="n">
         <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.3164340659340656</v>
+        <v>0.3839999999999999</v>
       </c>
     </row>
     <row r="48">
@@ -4399,76 +4399,76 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1.94301990049751</v>
+        <v>2.265074626865666</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01448888888888889</v>
+        <v>0.036</v>
       </c>
       <c r="F48" t="n">
-        <v>4.587571428571432</v>
+        <v>5.563999999999998</v>
       </c>
       <c r="G48" t="n">
-        <v>6.380854726368146</v>
+        <v>6.54618905472636</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3037047619047619</v>
+        <v>0.2959999999999999</v>
       </c>
       <c r="I48" t="n">
-        <v>14.39770476190476</v>
+        <v>14.932</v>
       </c>
       <c r="J48" t="n">
-        <v>7.059438395324957</v>
+        <v>7.182308457711431</v>
       </c>
       <c r="K48" t="n">
-        <v>0.3082483405483406</v>
+        <v>0.3039999999999999</v>
       </c>
       <c r="L48" t="n">
-        <v>14.96597316903369</v>
+        <v>15.31200000000001</v>
       </c>
       <c r="M48" t="n">
-        <v>6.004724752619766</v>
+        <v>5.836059701492531</v>
       </c>
       <c r="N48" t="n">
-        <v>0.4659859307359306</v>
+        <v>0.3599999999999999</v>
       </c>
       <c r="O48" t="n">
-        <v>11.72451530321531</v>
+        <v>11.82</v>
       </c>
       <c r="P48" t="n">
-        <v>4.048989865735489</v>
+        <v>4.240895522388052</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.2287837836546563</v>
+        <v>0.2359999999999999</v>
       </c>
       <c r="R48" t="n">
-        <v>8.320706891311307</v>
+        <v>8.596000000000004</v>
       </c>
       <c r="S48" t="n">
-        <v>2.762796104138781</v>
+        <v>2.711980099502478</v>
       </c>
       <c r="T48" t="n">
-        <v>0.1364728410707512</v>
+        <v>0.08400000000000002</v>
       </c>
       <c r="U48" t="n">
-        <v>5.96692104017967</v>
+        <v>6.071999999999999</v>
       </c>
       <c r="V48" t="n">
-        <v>1.443762872506156</v>
+        <v>1.279422885572139</v>
       </c>
       <c r="W48" t="n">
-        <v>0.008942884965229832</v>
+        <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>3.37442394418447</v>
+        <v>3.120000000000001</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.2639334280976061</v>
+        <v>0.246189054726367</v>
       </c>
       <c r="Z48" t="n">
         <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.8990649350649345</v>
+        <v>0.8640000000000002</v>
       </c>
     </row>
     <row r="49">
@@ -4500,58 +4500,58 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.950607691700228</v>
+        <v>1.02899502487562</v>
       </c>
       <c r="K49" t="n">
-        <v>0.007555555555555555</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>2.673169023569025</v>
+        <v>3.027999999999999</v>
       </c>
       <c r="M49" t="n">
-        <v>2.767833890671685</v>
+        <v>2.781492537313424</v>
       </c>
       <c r="N49" t="n">
-        <v>0.07184927536231886</v>
+        <v>0.036</v>
       </c>
       <c r="O49" t="n">
-        <v>7.450146741929094</v>
+        <v>7.535999999999999</v>
       </c>
       <c r="P49" t="n">
-        <v>3.092191815923149</v>
+        <v>3.128417910447754</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.1895851851851848</v>
+        <v>0.176</v>
       </c>
       <c r="R49" t="n">
-        <v>7.542902442002453</v>
+        <v>7.688000000000005</v>
       </c>
       <c r="S49" t="n">
-        <v>2.824096280502233</v>
+        <v>2.85235820895521</v>
       </c>
       <c r="T49" t="n">
-        <v>0.1294234691234689</v>
+        <v>0.1400000000000001</v>
       </c>
       <c r="U49" t="n">
-        <v>6.807460317460314</v>
+        <v>6.911999999999999</v>
       </c>
       <c r="V49" t="n">
-        <v>1.834389883913765</v>
+        <v>1.812238805970149</v>
       </c>
       <c r="W49" t="n">
-        <v>0.004000000000000001</v>
+        <v>0.016</v>
       </c>
       <c r="X49" t="n">
-        <v>4.405459412419944</v>
+        <v>4.431999999999999</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.4738757579347121</v>
+        <v>0.4626865671641784</v>
       </c>
       <c r="Z49" t="n">
         <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>1.537499999999999</v>
+        <v>1.492</v>
       </c>
     </row>
     <row r="50">
@@ -4565,76 +4565,76 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1.012735765616361</v>
+        <v>1.190049751243779</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>3.261763251563251</v>
+        <v>3.596000000000002</v>
       </c>
       <c r="G50" t="n">
-        <v>2.907542180631227</v>
+        <v>2.909014925373126</v>
       </c>
       <c r="H50" t="n">
-        <v>0.09332539682539674</v>
+        <v>0.07200000000000002</v>
       </c>
       <c r="I50" t="n">
-        <v>7.397653910855229</v>
+        <v>7.755999999999999</v>
       </c>
       <c r="J50" t="n">
-        <v>3.216153449645975</v>
+        <v>3.318169154228842</v>
       </c>
       <c r="K50" t="n">
-        <v>0.09406190476190465</v>
+        <v>0.05600000000000001</v>
       </c>
       <c r="L50" t="n">
-        <v>7.696075565175557</v>
+        <v>8.000000000000004</v>
       </c>
       <c r="M50" t="n">
-        <v>3.147986563031177</v>
+        <v>3.182805970149244</v>
       </c>
       <c r="N50" t="n">
-        <v>0.06711111111111114</v>
+        <v>0.048</v>
       </c>
       <c r="O50" t="n">
-        <v>7.240305627705625</v>
+        <v>7.220000000000003</v>
       </c>
       <c r="P50" t="n">
-        <v>2.903999803481258</v>
+        <v>2.887243781094523</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.1046426129426128</v>
+        <v>0.044</v>
       </c>
       <c r="R50" t="n">
-        <v>6.657237301587303</v>
+        <v>6.692000000000004</v>
       </c>
       <c r="S50" t="n">
-        <v>2.33882331025422</v>
+        <v>2.274985074626854</v>
       </c>
       <c r="T50" t="n">
-        <v>0.0199197323373794</v>
+        <v>0.024</v>
       </c>
       <c r="U50" t="n">
-        <v>5.085041333422912</v>
+        <v>5.116</v>
       </c>
       <c r="V50" t="n">
-        <v>1.471292927636211</v>
+        <v>1.371263681592038</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>3.42561283122336</v>
+        <v>3.332</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.3345223011300223</v>
+        <v>0.3265671641791035</v>
       </c>
       <c r="Z50" t="n">
         <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>1.022237802840434</v>
+        <v>1.004</v>
       </c>
     </row>
     <row r="51">
@@ -4657,67 +4657,67 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.01514427860696516</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>0.05600000000000001</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>0.1027860696517412</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>0.304</v>
       </c>
       <c r="M51" t="n">
-        <v>1.685442360845342</v>
+        <v>1.813492537313431</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>4.536584742664747</v>
+        <v>4.812</v>
       </c>
       <c r="P51" t="n">
-        <v>2.038807523230398</v>
+        <v>2.2040199004975</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.001555555555555556</v>
+        <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>5.349108802308802</v>
+        <v>5.676000000000004</v>
       </c>
       <c r="S51" t="n">
-        <v>1.933958872305138</v>
+        <v>2.077771144278604</v>
       </c>
       <c r="T51" t="n">
-        <v>0.001333333333333334</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>4.955088888888899</v>
+        <v>5.363999999999997</v>
       </c>
       <c r="V51" t="n">
-        <v>1.344946825396825</v>
+        <v>1.48899502487562</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>3.663999999999996</v>
+        <v>4.092000000000001</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.3521003316749572</v>
+        <v>0.3769950248756209</v>
       </c>
       <c r="Z51" t="n">
         <v>0</v>
       </c>
       <c r="AA51" t="n">
-        <v>1.097895238095239</v>
+        <v>1.188000000000001</v>
       </c>
     </row>
     <row r="52">
@@ -4749,58 +4749,58 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>0.124835820895522</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>0.3280000000000001</v>
       </c>
       <c r="M52" t="n">
-        <v>15.20686190883005</v>
+        <v>15.82304477611938</v>
       </c>
       <c r="N52" t="n">
-        <v>0.7952239316239316</v>
+        <v>0.8519999999999999</v>
       </c>
       <c r="O52" t="n">
-        <v>35.10024636844638</v>
+        <v>36.60400000000001</v>
       </c>
       <c r="P52" t="n">
-        <v>12.2974052488142</v>
+        <v>12.58537313432835</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.6481005309505308</v>
+        <v>0.8199999999999997</v>
       </c>
       <c r="R52" t="n">
-        <v>25.31827150710187</v>
+        <v>25.688</v>
       </c>
       <c r="S52" t="n">
-        <v>5.820452380206118</v>
+        <v>5.526825870646762</v>
       </c>
       <c r="T52" t="n">
-        <v>0.3126412894614924</v>
+        <v>0.3639999999999999</v>
       </c>
       <c r="U52" t="n">
-        <v>12.40270438537497</v>
+        <v>12.204</v>
       </c>
       <c r="V52" t="n">
-        <v>1.848676616915421</v>
+        <v>1.764019900497513</v>
       </c>
       <c r="W52" t="n">
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>5.126468253968249</v>
+        <v>5.096000000000004</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.247035655058043</v>
+        <v>0.2359004975124376</v>
       </c>
       <c r="Z52" t="n">
         <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.9534999999999993</v>
+        <v>0.8719999999999998</v>
       </c>
     </row>
     <row r="53">
@@ -4814,76 +4814,76 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>4.322102055858256</v>
+        <v>4.017014925373123</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1266666666666665</v>
+        <v>0.1280000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>9.992711111111097</v>
+        <v>9.684000000000003</v>
       </c>
       <c r="G53" t="n">
-        <v>6.662081481481474</v>
+        <v>6.74204975124377</v>
       </c>
       <c r="H53" t="n">
-        <v>0.3140158730158726</v>
+        <v>0.2519999999999999</v>
       </c>
       <c r="I53" t="n">
-        <v>14.05140476190476</v>
+        <v>14.90799999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>6.789536543473106</v>
+        <v>6.469592039800987</v>
       </c>
       <c r="K53" t="n">
-        <v>0.3070412698412697</v>
+        <v>0.2559999999999999</v>
       </c>
       <c r="L53" t="n">
-        <v>13.77533403964455</v>
+        <v>13.46000000000001</v>
       </c>
       <c r="M53" t="n">
-        <v>5.260211474374157</v>
+        <v>5.166825870646758</v>
       </c>
       <c r="N53" t="n">
-        <v>0.1938952380952381</v>
+        <v>0.204</v>
       </c>
       <c r="O53" t="n">
-        <v>11.29318196988198</v>
+        <v>10.836</v>
       </c>
       <c r="P53" t="n">
-        <v>3.335565162601588</v>
+        <v>3.645671641791035</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.1600880748880747</v>
+        <v>0.1919999999999999</v>
       </c>
       <c r="R53" t="n">
-        <v>7.313828360528357</v>
+        <v>7.848000000000003</v>
       </c>
       <c r="S53" t="n">
-        <v>2.350563240823805</v>
+        <v>2.314825870646752</v>
       </c>
       <c r="T53" t="n">
-        <v>0.09238413438413427</v>
+        <v>0.112</v>
       </c>
       <c r="U53" t="n">
-        <v>5.328915276255681</v>
+        <v>5.195999999999998</v>
       </c>
       <c r="V53" t="n">
-        <v>1.112954802466742</v>
+        <v>1.08457711442786</v>
       </c>
       <c r="W53" t="n">
-        <v>0.01361717067951555</v>
+        <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>3.250801899951898</v>
+        <v>2.888000000000001</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.2152667851220079</v>
+        <v>0.2080995024875613</v>
       </c>
       <c r="Z53" t="n">
         <v>0</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.8927316017316015</v>
+        <v>0.8319999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -4897,76 +4897,76 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>0.01480597014925372</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="G54" t="n">
-        <v>1.841958856511093</v>
+        <v>1.962208955223877</v>
       </c>
       <c r="H54" t="n">
-        <v>0.004444444444444444</v>
+        <v>0.032</v>
       </c>
       <c r="I54" t="n">
-        <v>5.595667377067375</v>
+        <v>5.792000000000004</v>
       </c>
       <c r="J54" t="n">
-        <v>2.083842932996175</v>
+        <v>2.426925373134319</v>
       </c>
       <c r="K54" t="n">
-        <v>0.03690721500721501</v>
+        <v>0.052</v>
       </c>
       <c r="L54" t="n">
-        <v>5.563579956701938</v>
+        <v>6.240000000000001</v>
       </c>
       <c r="M54" t="n">
-        <v>2.193989364284128</v>
+        <v>2.516955223880581</v>
       </c>
       <c r="N54" t="n">
-        <v>0.004</v>
+        <v>0.05599999999999999</v>
       </c>
       <c r="O54" t="n">
-        <v>5.671300630062521</v>
+        <v>6.171999999999997</v>
       </c>
       <c r="P54" t="n">
-        <v>2.066928982073753</v>
+        <v>2.314009950248752</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.02607042826454592</v>
+        <v>0.044</v>
       </c>
       <c r="R54" t="n">
-        <v>4.934952380952384</v>
+        <v>5.364000000000002</v>
       </c>
       <c r="S54" t="n">
-        <v>1.762609286434307</v>
+        <v>1.932039800995021</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="U54" t="n">
-        <v>4.534370370370363</v>
+        <v>4.816000000000003</v>
       </c>
       <c r="V54" t="n">
-        <v>1.152128381900024</v>
+        <v>1.242905472636815</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="X54" t="n">
-        <v>2.971869167869168</v>
+        <v>3.004</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.2915078654347295</v>
+        <v>0.309711442786068</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>1.009994745484401</v>
+        <v>1.032</v>
       </c>
     </row>
     <row r="55">
@@ -4980,76 +4980,76 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>0.03838805970149248</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>0.124</v>
       </c>
       <c r="G55" t="n">
-        <v>2.417296667456359</v>
+        <v>2.45357213930347</v>
       </c>
       <c r="H55" t="n">
-        <v>0.06489947089947089</v>
+        <v>0.1440000000000001</v>
       </c>
       <c r="I55" t="n">
-        <v>6.257224025974026</v>
+        <v>6.000000000000004</v>
       </c>
       <c r="J55" t="n">
-        <v>3.105022780480978</v>
+        <v>3.316955223880583</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0984860509860509</v>
+        <v>0.164</v>
       </c>
       <c r="L55" t="n">
-        <v>7.193857629516455</v>
+        <v>7.551999999999996</v>
       </c>
       <c r="M55" t="n">
-        <v>3.215700216146073</v>
+        <v>3.506786069651732</v>
       </c>
       <c r="N55" t="n">
-        <v>0.2173894736842104</v>
+        <v>0.212</v>
       </c>
       <c r="O55" t="n">
-        <v>7.421680876422052</v>
+        <v>7.796000000000005</v>
       </c>
       <c r="P55" t="n">
-        <v>3.019341817368175</v>
+        <v>3.12831840796019</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.128804046498164</v>
+        <v>0.1560000000000001</v>
       </c>
       <c r="R55" t="n">
-        <v>6.703826190476189</v>
+        <v>6.868000000000003</v>
       </c>
       <c r="S55" t="n">
-        <v>2.593989550151599</v>
+        <v>2.605711442786058</v>
       </c>
       <c r="T55" t="n">
-        <v>0.05171605790723439</v>
+        <v>0.1440000000000001</v>
       </c>
       <c r="U55" t="n">
-        <v>5.797572528835686</v>
+        <v>5.843999999999999</v>
       </c>
       <c r="V55" t="n">
-        <v>1.586511387145353</v>
+        <v>1.583701492537312</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="X55" t="n">
-        <v>3.567829603729601</v>
+        <v>3.48</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.3967837452008656</v>
+        <v>0.3838606965174119</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>1.18287673653257</v>
+        <v>1.184000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -5072,67 +5072,67 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>0.3811343283582084</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>0.9719999999999999</v>
       </c>
       <c r="J56" t="n">
-        <v>16.16596383582288</v>
+        <v>15.08539303482586</v>
       </c>
       <c r="K56" t="n">
-        <v>1.06490967258862</v>
+        <v>0.8640000000000002</v>
       </c>
       <c r="L56" t="n">
-        <v>38.74298488399986</v>
+        <v>36.40400000000002</v>
       </c>
       <c r="M56" t="n">
-        <v>13.46718645397352</v>
+        <v>13.02571144278607</v>
       </c>
       <c r="N56" t="n">
-        <v>0.6418603396603395</v>
+        <v>0.6559999999999999</v>
       </c>
       <c r="O56" t="n">
-        <v>27.40603036576946</v>
+        <v>26.89200000000001</v>
       </c>
       <c r="P56" t="n">
-        <v>6.19188950648685</v>
+        <v>6.257970149253725</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.181441225441225</v>
+        <v>0.2839999999999998</v>
       </c>
       <c r="R56" t="n">
-        <v>14.22257523996471</v>
+        <v>14.012</v>
       </c>
       <c r="S56" t="n">
-        <v>2.4674588959962</v>
+        <v>2.642925373134317</v>
       </c>
       <c r="T56" t="n">
-        <v>0.008387008110120241</v>
+        <v>0.052</v>
       </c>
       <c r="U56" t="n">
-        <v>6.966925396825394</v>
+        <v>7.296000000000001</v>
       </c>
       <c r="V56" t="n">
-        <v>0.7995961857379758</v>
+        <v>0.8901492537313422</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>2.952893506493504</v>
+        <v>3.188000000000001</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.107762023217247</v>
+        <v>0.1216119402985074</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.5656166666666672</v>
+        <v>0.6360000000000005</v>
       </c>
     </row>
     <row r="57">
@@ -5164,58 +5164,58 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>9.181922553897166</v>
+        <v>9.145412935323371</v>
       </c>
       <c r="K57" t="n">
-        <v>0.3107317460317462</v>
+        <v>0.26</v>
       </c>
       <c r="L57" t="n">
-        <v>25.13711428571425</v>
+        <v>24.58000000000001</v>
       </c>
       <c r="M57" t="n">
-        <v>19.13814881225278</v>
+        <v>18.68983084577114</v>
       </c>
       <c r="N57" t="n">
-        <v>1.093129004329004</v>
+        <v>1.188</v>
       </c>
       <c r="O57" t="n">
-        <v>39.05577301587304</v>
+        <v>38.648</v>
       </c>
       <c r="P57" t="n">
-        <v>7.846546595665239</v>
+        <v>7.957273631840781</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.5519586100174336</v>
+        <v>0.4239999999999998</v>
       </c>
       <c r="R57" t="n">
-        <v>17.05834365079366</v>
+        <v>17.42000000000001</v>
       </c>
       <c r="S57" t="n">
-        <v>2.90158308457711</v>
+        <v>2.920318407960194</v>
       </c>
       <c r="T57" t="n">
-        <v>0.06153939393939394</v>
+        <v>0.024</v>
       </c>
       <c r="U57" t="n">
-        <v>8.056869841269844</v>
+        <v>8.319999999999995</v>
       </c>
       <c r="V57" t="n">
-        <v>0.8471091210613584</v>
+        <v>0.8783283582089542</v>
       </c>
       <c r="W57" t="n">
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>3.033041269841277</v>
+        <v>3.287999999999998</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.1159337123904288</v>
+        <v>0.1177910447761193</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.6791575757575758</v>
+        <v>0.7080000000000004</v>
       </c>
     </row>
     <row r="58">
@@ -5229,76 +5229,76 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9268370370370363</v>
+        <v>0.9715422885572131</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>3.131200288600293</v>
+        <v>2.988</v>
       </c>
       <c r="G58" t="n">
-        <v>2.78019628313458</v>
+        <v>2.623263681592028</v>
       </c>
       <c r="H58" t="n">
-        <v>0.08961649831649821</v>
+        <v>0.09200000000000003</v>
       </c>
       <c r="I58" t="n">
-        <v>7.118612352413668</v>
+        <v>6.872000000000003</v>
       </c>
       <c r="J58" t="n">
-        <v>3.169071225844349</v>
+        <v>3.096019900497499</v>
       </c>
       <c r="K58" t="n">
-        <v>0.06289732250320484</v>
+        <v>0.07200000000000002</v>
       </c>
       <c r="L58" t="n">
-        <v>7.388380489880487</v>
+        <v>7.456</v>
       </c>
       <c r="M58" t="n">
-        <v>3.139663317665891</v>
+        <v>2.976676616915415</v>
       </c>
       <c r="N58" t="n">
-        <v>0.1358125603864735</v>
+        <v>0.1</v>
       </c>
       <c r="O58" t="n">
-        <v>6.612286673457259</v>
+        <v>6.836000000000004</v>
       </c>
       <c r="P58" t="n">
-        <v>2.939475693870579</v>
+        <v>2.705154228855715</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.04081397360809125</v>
+        <v>0.02</v>
       </c>
       <c r="R58" t="n">
-        <v>6.56400396825397</v>
+        <v>6.304000000000003</v>
       </c>
       <c r="S58" t="n">
-        <v>2.326086044203524</v>
+        <v>2.149950248756209</v>
       </c>
       <c r="T58" t="n">
-        <v>0.03515851947616654</v>
+        <v>0.024</v>
       </c>
       <c r="U58" t="n">
-        <v>4.95179318527476</v>
+        <v>4.872000000000003</v>
       </c>
       <c r="V58" t="n">
-        <v>1.471656348626497</v>
+        <v>1.322766169154227</v>
       </c>
       <c r="W58" t="n">
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>3.383366288876815</v>
+        <v>3.240000000000001</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.331400825176457</v>
+        <v>0.3195621890547254</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.9987851818024687</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="59">
@@ -5321,67 +5321,67 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>0.07607960199004959</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>0.208</v>
       </c>
       <c r="J59" t="n">
-        <v>11.39854675273912</v>
+        <v>11.42199004975122</v>
       </c>
       <c r="K59" t="n">
-        <v>0.5627666593010247</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="L59" t="n">
-        <v>27.3024467920968</v>
+        <v>26.352</v>
       </c>
       <c r="M59" t="n">
-        <v>12.68974950643607</v>
+        <v>12.51474626865671</v>
       </c>
       <c r="N59" t="n">
-        <v>0.4605518902837787</v>
+        <v>0.5239999999999998</v>
       </c>
       <c r="O59" t="n">
-        <v>26.42610867264781</v>
+        <v>26.128</v>
       </c>
       <c r="P59" t="n">
-        <v>7.345681331322719</v>
+        <v>7.12591044776119</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.1662840465507279</v>
+        <v>0.2239999999999999</v>
       </c>
       <c r="R59" t="n">
-        <v>15.09255247939195</v>
+        <v>14.416</v>
       </c>
       <c r="S59" t="n">
-        <v>3.590570879231319</v>
+        <v>3.339303482587055</v>
       </c>
       <c r="T59" t="n">
-        <v>0.08163781686684979</v>
+        <v>0.05600000000000001</v>
       </c>
       <c r="U59" t="n">
-        <v>8.27605844742479</v>
+        <v>7.732000000000004</v>
       </c>
       <c r="V59" t="n">
-        <v>1.244650035536602</v>
+        <v>1.176099502487562</v>
       </c>
       <c r="W59" t="n">
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>3.694355618455618</v>
+        <v>3.524000000000002</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.1941768301350388</v>
+        <v>0.1781492537313431</v>
       </c>
       <c r="Z59" t="n">
         <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.781333333333332</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="60">
@@ -5395,76 +5395,76 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9474220011055821</v>
+        <v>1.118427860696516</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>2.997727272727274</v>
+        <v>3.424</v>
       </c>
       <c r="G60" t="n">
-        <v>2.084825633736075</v>
+        <v>2.421990049751235</v>
       </c>
       <c r="H60" t="n">
-        <v>0.01644444444444445</v>
+        <v>0.02</v>
       </c>
       <c r="I60" t="n">
-        <v>5.760461316461314</v>
+        <v>6.572000000000002</v>
       </c>
       <c r="J60" t="n">
-        <v>2.224354661566111</v>
+        <v>2.69934328358208</v>
       </c>
       <c r="K60" t="n">
-        <v>0.06633333333333331</v>
+        <v>0.07600000000000003</v>
       </c>
       <c r="L60" t="n">
-        <v>5.927446859240986</v>
+        <v>6.859999999999999</v>
       </c>
       <c r="M60" t="n">
-        <v>2.181384493376525</v>
+        <v>2.610686567164166</v>
       </c>
       <c r="N60" t="n">
-        <v>0.1240000000000001</v>
+        <v>0.048</v>
       </c>
       <c r="O60" t="n">
-        <v>5.655156510196605</v>
+        <v>6.508000000000002</v>
       </c>
       <c r="P60" t="n">
-        <v>2.017599731501218</v>
+        <v>2.350825870646762</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.01266666666666667</v>
+        <v>0.024</v>
       </c>
       <c r="R60" t="n">
-        <v>5.035374603174602</v>
+        <v>5.672000000000001</v>
       </c>
       <c r="S60" t="n">
-        <v>1.711610882097448</v>
+        <v>1.92159203980099</v>
       </c>
       <c r="T60" t="n">
-        <v>0.007333333333333332</v>
+        <v>0.024</v>
       </c>
       <c r="U60" t="n">
-        <v>4.308343915343912</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="V60" t="n">
-        <v>1.097671179815209</v>
+        <v>1.187323383084576</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>2.970013516113517</v>
+        <v>3.076</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.2753965884861396</v>
+        <v>0.2897711442786058</v>
       </c>
       <c r="Z60" t="n">
         <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>1.006203174603175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -5478,76 +5478,76 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>0.08244776119402958</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>0.212</v>
       </c>
       <c r="G61" t="n">
-        <v>16.0946407775935</v>
+        <v>16.28748258706467</v>
       </c>
       <c r="H61" t="n">
-        <v>1.315062962962963</v>
+        <v>1.16</v>
       </c>
       <c r="I61" t="n">
-        <v>38.15913432678432</v>
+        <v>37.16799999999999</v>
       </c>
       <c r="J61" t="n">
-        <v>13.64393534017115</v>
+        <v>13.69046766169153</v>
       </c>
       <c r="K61" t="n">
-        <v>1.198907683669386</v>
+        <v>0.9800000000000001</v>
       </c>
       <c r="L61" t="n">
-        <v>27.29972232960277</v>
+        <v>27.55999999999998</v>
       </c>
       <c r="M61" t="n">
-        <v>6.351363986225662</v>
+        <v>6.29980099502486</v>
       </c>
       <c r="N61" t="n">
-        <v>0.3240531199982813</v>
+        <v>0.28</v>
       </c>
       <c r="O61" t="n">
-        <v>13.56601827061828</v>
+        <v>13.584</v>
       </c>
       <c r="P61" t="n">
-        <v>2.57700227865004</v>
+        <v>2.557970149253728</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.06739043179043178</v>
+        <v>0.116</v>
       </c>
       <c r="R61" t="n">
-        <v>6.713500793650798</v>
+        <v>6.756000000000003</v>
       </c>
       <c r="S61" t="n">
-        <v>1.02479614230435</v>
+        <v>1.032875621890547</v>
       </c>
       <c r="T61" t="n">
-        <v>0.002218176941289069</v>
+        <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>3.708216065416067</v>
+        <v>3.744</v>
       </c>
       <c r="V61" t="n">
-        <v>0.3409361367764342</v>
+        <v>0.3425671641791037</v>
       </c>
       <c r="W61" t="n">
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>1.517605729455729</v>
+        <v>1.515999999999999</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.04971802507884589</v>
+        <v>0.04660696517412932</v>
       </c>
       <c r="Z61" t="n">
         <v>0</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.3707517396925321</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="62">
@@ -5570,67 +5570,67 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>4.131800995024855</v>
+        <v>4.994407960198989</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1702222222222219</v>
+        <v>0.2119999999999999</v>
       </c>
       <c r="I62" t="n">
-        <v>10.35800000000001</v>
+        <v>12.748</v>
       </c>
       <c r="J62" t="n">
-        <v>12.99401137164703</v>
+        <v>14.60477611940297</v>
       </c>
       <c r="K62" t="n">
-        <v>0.9083257330274357</v>
+        <v>0.8360000000000004</v>
       </c>
       <c r="L62" t="n">
-        <v>29.41975423604056</v>
+        <v>32.33999999999998</v>
       </c>
       <c r="M62" t="n">
-        <v>9.875134485712852</v>
+        <v>9.908238805970136</v>
       </c>
       <c r="N62" t="n">
-        <v>0.670951865044085</v>
+        <v>0.6000000000000002</v>
       </c>
       <c r="O62" t="n">
-        <v>20.1631478188478</v>
+        <v>20.07200000000001</v>
       </c>
       <c r="P62" t="n">
-        <v>5.848220985461329</v>
+        <v>5.176676616915412</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.3405527365582041</v>
+        <v>0.3040000000000001</v>
       </c>
       <c r="R62" t="n">
-        <v>11.87163159177424</v>
+        <v>11.28800000000001</v>
       </c>
       <c r="S62" t="n">
-        <v>2.521750888415057</v>
+        <v>2.368517412935317</v>
       </c>
       <c r="T62" t="n">
-        <v>0.1046547890709158</v>
+        <v>0.052</v>
       </c>
       <c r="U62" t="n">
-        <v>6.190819695980153</v>
+        <v>6.039999999999999</v>
       </c>
       <c r="V62" t="n">
-        <v>0.8923031272210369</v>
+        <v>0.8402786069651733</v>
       </c>
       <c r="W62" t="n">
         <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>2.932088359788361</v>
+        <v>2.824</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.1308001658374791</v>
+        <v>0.1267263681592039</v>
       </c>
       <c r="Z62" t="n">
         <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.6504358974358976</v>
+        <v>0.6440000000000005</v>
       </c>
     </row>
     <row r="63">
@@ -5644,76 +5644,76 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>15.86455058043116</v>
+        <v>15.08839800995022</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5493333333333333</v>
+        <v>0.5479999999999997</v>
       </c>
       <c r="F63" t="n">
-        <v>39.74533333333331</v>
+        <v>37.41200000000001</v>
       </c>
       <c r="G63" t="n">
-        <v>13.28997070204533</v>
+        <v>13.62451741293532</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9324444444444443</v>
+        <v>0.8639999999999994</v>
       </c>
       <c r="I63" t="n">
-        <v>28.27683333333331</v>
+        <v>28.82000000000001</v>
       </c>
       <c r="J63" t="n">
-        <v>6.187750082918729</v>
+        <v>6.650427860696507</v>
       </c>
       <c r="K63" t="n">
-        <v>0.2851095238095238</v>
+        <v>0.2639999999999999</v>
       </c>
       <c r="L63" t="n">
-        <v>14.07585079365079</v>
+        <v>14.67600000000001</v>
       </c>
       <c r="M63" t="n">
-        <v>2.705969254736412</v>
+        <v>2.951462686567155</v>
       </c>
       <c r="N63" t="n">
-        <v>0.036</v>
+        <v>0.09200000000000001</v>
       </c>
       <c r="O63" t="n">
-        <v>7.460372534872537</v>
+        <v>7.779999999999997</v>
       </c>
       <c r="P63" t="n">
-        <v>1.115198120508567</v>
+        <v>1.223960199004974</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.0032</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>3.723199999999998</v>
+        <v>3.971999999999998</v>
       </c>
       <c r="S63" t="n">
-        <v>0.473528796493721</v>
+        <v>0.5110248756218898</v>
       </c>
       <c r="T63" t="n">
-        <v>6.34920634920635e-05</v>
+        <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>1.876168253968253</v>
+        <v>2.023999999999999</v>
       </c>
       <c r="V63" t="n">
-        <v>0.1565678275290215</v>
+        <v>0.1807562189054723</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>1.00818581710687</v>
+        <v>0.9919999999999995</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.02794241742226809</v>
+        <v>0.03136318407960193</v>
       </c>
       <c r="Z63" t="n">
         <v>0</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.2596530747030743</v>
+        <v>0.2519999999999999</v>
       </c>
     </row>
     <row r="64">
@@ -5727,76 +5727,76 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9364435599778873</v>
+        <v>1.111064676616914</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>2.942727272727275</v>
+        <v>3.364</v>
       </c>
       <c r="G64" t="n">
-        <v>2.073106230751001</v>
+        <v>2.460238805970141</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="I64" t="n">
-        <v>5.660580364080363</v>
+        <v>6.68</v>
       </c>
       <c r="J64" t="n">
-        <v>2.196639308676876</v>
+        <v>2.696378109452726</v>
       </c>
       <c r="K64" t="n">
-        <v>0.05255555555555558</v>
+        <v>0.068</v>
       </c>
       <c r="L64" t="n">
-        <v>5.662082462480763</v>
+        <v>6.72</v>
       </c>
       <c r="M64" t="n">
-        <v>2.17533758506096</v>
+        <v>2.575402985074615</v>
       </c>
       <c r="N64" t="n">
-        <v>0.016</v>
+        <v>0.024</v>
       </c>
       <c r="O64" t="n">
-        <v>5.620267621307716</v>
+        <v>6.308000000000001</v>
       </c>
       <c r="P64" t="n">
-        <v>2.030195419726755</v>
+        <v>2.318407960199</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.002411764705882354</v>
+        <v>0.008</v>
       </c>
       <c r="R64" t="n">
-        <v>5.031374603174603</v>
+        <v>5.584000000000002</v>
       </c>
       <c r="S64" t="n">
-        <v>1.715610882097448</v>
+        <v>1.8785671641791</v>
       </c>
       <c r="T64" t="n">
-        <v>0.002266666666666667</v>
+        <v>0.008</v>
       </c>
       <c r="U64" t="n">
-        <v>4.304966137566134</v>
+        <v>4.516</v>
       </c>
       <c r="V64" t="n">
-        <v>1.097732539682539</v>
+        <v>1.169830845771143</v>
       </c>
       <c r="W64" t="n">
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>2.905913083213085</v>
+        <v>2.992</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.274321961620468</v>
+        <v>0.2838407960198995</v>
       </c>
       <c r="Z64" t="n">
         <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.9928014915161468</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="65">
@@ -5828,58 +5828,58 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>0.1937711442786068</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>0.004000000000000001</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>0.524</v>
       </c>
       <c r="M65" t="n">
-        <v>19.48604964259985</v>
+        <v>19.76851741293524</v>
       </c>
       <c r="N65" t="n">
-        <v>0.9381594627594626</v>
+        <v>0.8240000000000005</v>
       </c>
       <c r="O65" t="n">
-        <v>51.2839513227513</v>
+        <v>50.59599999999998</v>
       </c>
       <c r="P65" t="n">
-        <v>12.36088801894623</v>
+        <v>11.85144278606965</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.7729843304843311</v>
+        <v>0.5399999999999996</v>
       </c>
       <c r="R65" t="n">
-        <v>24.76186710137688</v>
+        <v>24.54799999999999</v>
       </c>
       <c r="S65" t="n">
-        <v>4.244504675037506</v>
+        <v>4.324079601990039</v>
       </c>
       <c r="T65" t="n">
-        <v>0.08936078431372541</v>
+        <v>0.1320000000000001</v>
       </c>
       <c r="U65" t="n">
-        <v>10.70712592592593</v>
+        <v>10.692</v>
       </c>
       <c r="V65" t="n">
-        <v>1.232452238805969</v>
+        <v>1.264199004975123</v>
       </c>
       <c r="W65" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="X65" t="n">
-        <v>4.001647619047616</v>
+        <v>4.071999999999999</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.1601447250924862</v>
+        <v>0.1714825870646765</v>
       </c>
       <c r="Z65" t="n">
         <v>0</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.8996173881673879</v>
+        <v>0.8999999999999997</v>
       </c>
     </row>
     <row r="66">
@@ -5893,76 +5893,76 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>2.962348906262324</v>
+        <v>3.270129353233822</v>
       </c>
       <c r="E66" t="n">
-        <v>0.02933333333333334</v>
+        <v>0.05999999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>7.188422222222216</v>
+        <v>7.960000000000003</v>
       </c>
       <c r="G66" t="n">
-        <v>9.976170259812051</v>
+        <v>9.471402985074619</v>
       </c>
       <c r="H66" t="n">
-        <v>0.456</v>
+        <v>0.5039999999999998</v>
       </c>
       <c r="I66" t="n">
-        <v>22.44904444444444</v>
+        <v>21.67999999999998</v>
       </c>
       <c r="J66" t="n">
-        <v>9.521362550585527</v>
+        <v>8.881333333333325</v>
       </c>
       <c r="K66" t="n">
-        <v>0.4309476190476185</v>
+        <v>0.472</v>
       </c>
       <c r="L66" t="n">
-        <v>19.4269699078699</v>
+        <v>18.79599999999999</v>
       </c>
       <c r="M66" t="n">
-        <v>6.475350928618081</v>
+        <v>6.224199004975112</v>
       </c>
       <c r="N66" t="n">
-        <v>0.3851638528138527</v>
+        <v>0.2639999999999999</v>
       </c>
       <c r="O66" t="n">
-        <v>13.11927301587302</v>
+        <v>12.712</v>
       </c>
       <c r="P66" t="n">
-        <v>3.964056724084438</v>
+        <v>3.689034825870638</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.1306311317005433</v>
+        <v>0.08000000000000002</v>
       </c>
       <c r="R66" t="n">
-        <v>8.098049026953444</v>
+        <v>7.883999999999999</v>
       </c>
       <c r="S66" t="n">
-        <v>2.026215015487547</v>
+        <v>2.017671641791039</v>
       </c>
       <c r="T66" t="n">
-        <v>0.02850726239990947</v>
+        <v>0.012</v>
       </c>
       <c r="U66" t="n">
-        <v>5.049970544172977</v>
+        <v>4.999999999999999</v>
       </c>
       <c r="V66" t="n">
-        <v>0.8125979898487359</v>
+        <v>0.8381890547263676</v>
       </c>
       <c r="W66" t="n">
-        <v>0.008490476190476192</v>
+        <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>2.293633333333331</v>
+        <v>2.404000000000002</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.1216553067993365</v>
+        <v>0.1359203980099502</v>
       </c>
       <c r="Z66" t="n">
         <v>0</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.5997857142857147</v>
+        <v>0.5960000000000004</v>
       </c>
     </row>
     <row r="67">
@@ -5976,76 +5976,76 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>0.0997412935323376</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>0.264</v>
       </c>
       <c r="G67" t="n">
-        <v>7.608091431730212</v>
+        <v>7.1083383084577</v>
       </c>
       <c r="H67" t="n">
-        <v>0.7049999999999994</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="I67" t="n">
-        <v>16.34965476190478</v>
+        <v>15.544</v>
       </c>
       <c r="J67" t="n">
-        <v>9.920357477655491</v>
+        <v>9.84324378109452</v>
       </c>
       <c r="K67" t="n">
-        <v>1.036170755170755</v>
+        <v>1.068000000000001</v>
       </c>
       <c r="L67" t="n">
-        <v>21.01949548913991</v>
+        <v>20.14400000000001</v>
       </c>
       <c r="M67" t="n">
-        <v>8.043884837127125</v>
+        <v>7.877194029850744</v>
       </c>
       <c r="N67" t="n">
-        <v>0.5965714898637102</v>
+        <v>0.5480000000000002</v>
       </c>
       <c r="O67" t="n">
-        <v>15.47965103785105</v>
+        <v>15.46</v>
       </c>
       <c r="P67" t="n">
-        <v>4.965978865548561</v>
+        <v>5.020716417910434</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.308531302233507</v>
+        <v>0.3</v>
       </c>
       <c r="R67" t="n">
-        <v>10.0366896745596</v>
+        <v>10.50799999999999</v>
       </c>
       <c r="S67" t="n">
-        <v>2.895197208202486</v>
+        <v>2.858288557213923</v>
       </c>
       <c r="T67" t="n">
-        <v>0.154418960971194</v>
+        <v>0.12</v>
       </c>
       <c r="U67" t="n">
-        <v>6.413350874751768</v>
+        <v>6.331999999999999</v>
       </c>
       <c r="V67" t="n">
-        <v>1.168917715175923</v>
+        <v>1.224815920398009</v>
       </c>
       <c r="W67" t="n">
-        <v>0.01688038215818508</v>
+        <v>0.008</v>
       </c>
       <c r="X67" t="n">
-        <v>3.166546964146958</v>
+        <v>3.224</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.1891281805259415</v>
+        <v>0.2067263681592036</v>
       </c>
       <c r="Z67" t="n">
         <v>0</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.7644333333333322</v>
+        <v>0.8080000000000002</v>
       </c>
     </row>
     <row r="68">
@@ -6059,76 +6059,76 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>0.02083582089552236</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="G68" t="n">
-        <v>0.9125374772638444</v>
+        <v>1.028855721393034</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0055</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>2.939610866910864</v>
+        <v>3.067999999999998</v>
       </c>
       <c r="J68" t="n">
-        <v>2.730008393458384</v>
+        <v>2.753592039800987</v>
       </c>
       <c r="K68" t="n">
-        <v>0.0477640211640212</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="L68" t="n">
-        <v>7.126193160651987</v>
+        <v>6.904000000000003</v>
       </c>
       <c r="M68" t="n">
-        <v>3.180887107447144</v>
+        <v>3.144736318407949</v>
       </c>
       <c r="N68" t="n">
-        <v>0.1583955342902712</v>
+        <v>0.168</v>
       </c>
       <c r="O68" t="n">
-        <v>7.663303291044462</v>
+        <v>7.44</v>
       </c>
       <c r="P68" t="n">
-        <v>3.050269162125866</v>
+        <v>3.013751243781081</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.07883160782572542</v>
+        <v>0.116</v>
       </c>
       <c r="R68" t="n">
-        <v>6.889533333333327</v>
+        <v>6.944000000000004</v>
       </c>
       <c r="S68" t="n">
-        <v>2.563546335781404</v>
+        <v>2.521353233830842</v>
       </c>
       <c r="T68" t="n">
-        <v>0.04208851780028251</v>
+        <v>0.036</v>
       </c>
       <c r="U68" t="n">
-        <v>6.049361152882209</v>
+        <v>5.979999999999997</v>
       </c>
       <c r="V68" t="n">
-        <v>1.623190918314765</v>
+        <v>1.555363184079601</v>
       </c>
       <c r="W68" t="n">
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>3.924799592999591</v>
+        <v>3.716000000000002</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.41640425014801</v>
+        <v>0.4104477611940288</v>
       </c>
       <c r="Z68" t="n">
         <v>0</v>
       </c>
       <c r="AA68" t="n">
-        <v>1.2396693109685</v>
+        <v>1.180000000000001</v>
       </c>
     </row>
     <row r="69">
@@ -6151,67 +6151,67 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>12.5780232172471</v>
+        <v>12.10069651741293</v>
       </c>
       <c r="H69" t="n">
-        <v>0.586780952380952</v>
+        <v>0.5960000000000004</v>
       </c>
       <c r="I69" t="n">
-        <v>35.67923333333336</v>
+        <v>34.11199999999999</v>
       </c>
       <c r="J69" t="n">
-        <v>20.01024158260707</v>
+        <v>19.53082587064675</v>
       </c>
       <c r="K69" t="n">
-        <v>1.381499973630314</v>
+        <v>1.292000000000001</v>
       </c>
       <c r="L69" t="n">
-        <v>42.34536134974308</v>
+        <v>42.04799999999999</v>
       </c>
       <c r="M69" t="n">
-        <v>6.48503390981598</v>
+        <v>6.761631840796011</v>
       </c>
       <c r="N69" t="n">
-        <v>0.4289304473304471</v>
+        <v>0.3759999999999999</v>
       </c>
       <c r="O69" t="n">
-        <v>16.64115613275614</v>
+        <v>16.75599999999999</v>
       </c>
       <c r="P69" t="n">
-        <v>2.270316986496077</v>
+        <v>2.357094527363166</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.002666666666666667</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>8.47115714285715</v>
+        <v>8.468000000000002</v>
       </c>
       <c r="S69" t="n">
-        <v>0.8402615572929002</v>
+        <v>0.8770547263681592</v>
       </c>
       <c r="T69" t="n">
         <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>3.92028636178636</v>
+        <v>3.9</v>
       </c>
       <c r="V69" t="n">
-        <v>0.2765450270293545</v>
+        <v>0.2879203980099492</v>
       </c>
       <c r="W69" t="n">
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>1.772261416361415</v>
+        <v>1.928</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.03871955838035726</v>
+        <v>0.03753233830845762</v>
       </c>
       <c r="Z69" t="n">
         <v>0</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.3931225108225102</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="70">
@@ -6234,67 +6234,67 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.07291542288557208</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>0.224</v>
       </c>
       <c r="J70" t="n">
-        <v>2.262219663586817</v>
+        <v>2.145512437810934</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>6.453546649646651</v>
+        <v>6.075999999999998</v>
       </c>
       <c r="M70" t="n">
-        <v>3.006824163803353</v>
+        <v>2.897253731343271</v>
       </c>
       <c r="N70" t="n">
-        <v>0.05100779848171153</v>
+        <v>0.02</v>
       </c>
       <c r="O70" t="n">
-        <v>7.843173168661402</v>
+        <v>7.652000000000004</v>
       </c>
       <c r="P70" t="n">
-        <v>3.078931761107876</v>
+        <v>3.008935323383077</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.1461658974553709</v>
+        <v>0.172</v>
       </c>
       <c r="R70" t="n">
-        <v>7.5657952991453</v>
+        <v>7.451999999999995</v>
       </c>
       <c r="S70" t="n">
-        <v>2.743293698175776</v>
+        <v>2.641611940298495</v>
       </c>
       <c r="T70" t="n">
-        <v>0.01647909384316707</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="U70" t="n">
-        <v>6.527214814814815</v>
+        <v>6.388000000000001</v>
       </c>
       <c r="V70" t="n">
-        <v>1.779444432598909</v>
+        <v>1.693791044776118</v>
       </c>
       <c r="W70" t="n">
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>4.027459035019562</v>
+        <v>3.9</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.441980435125956</v>
+        <v>0.4237611940298492</v>
       </c>
       <c r="Z70" t="n">
         <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>1.38838145666594</v>
+        <v>1.328</v>
       </c>
     </row>
     <row r="71">
@@ -6326,58 +6326,58 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>0.1056716417910448</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="M71" t="n">
-        <v>4.448954339414036</v>
+        <v>4.692378109452729</v>
       </c>
       <c r="N71" t="n">
-        <v>0.03448888888888888</v>
+        <v>0.05599999999999999</v>
       </c>
       <c r="O71" t="n">
-        <v>10.05533333333332</v>
+        <v>10.49600000000001</v>
       </c>
       <c r="P71" t="n">
-        <v>6.664657822001105</v>
+        <v>6.793532338308455</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.3342560846560844</v>
+        <v>0.3240000000000001</v>
       </c>
       <c r="R71" t="n">
-        <v>14.6682380952381</v>
+        <v>15.02799999999999</v>
       </c>
       <c r="S71" t="n">
-        <v>5.814155768029639</v>
+        <v>5.842388059701484</v>
       </c>
       <c r="T71" t="n">
-        <v>0.2654594505027749</v>
+        <v>0.2</v>
       </c>
       <c r="U71" t="n">
-        <v>12.24832186136303</v>
+        <v>12.008</v>
       </c>
       <c r="V71" t="n">
-        <v>3.253847036642174</v>
+        <v>3.23391044776118</v>
       </c>
       <c r="W71" t="n">
-        <v>0.07682940785681666</v>
+        <v>0.044</v>
       </c>
       <c r="X71" t="n">
-        <v>7.122234373034374</v>
+        <v>7.239999999999998</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.6694903237448002</v>
+        <v>0.6731144278606952</v>
       </c>
       <c r="Z71" t="n">
         <v>0</v>
       </c>
       <c r="AA71" t="n">
-        <v>1.823378317869495</v>
+        <v>1.907999999999999</v>
       </c>
     </row>
     <row r="72">
@@ -6400,67 +6400,67 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>0.1437810945273632</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>0.348</v>
       </c>
       <c r="J72" t="n">
-        <v>4.787679222932936</v>
+        <v>4.945771144278591</v>
       </c>
       <c r="K72" t="n">
-        <v>0.1452190476190473</v>
+        <v>0.18</v>
       </c>
       <c r="L72" t="n">
-        <v>11.1608857142857</v>
+        <v>11.58</v>
       </c>
       <c r="M72" t="n">
-        <v>6.852404473178572</v>
+        <v>7.228796019900487</v>
       </c>
       <c r="N72" t="n">
-        <v>0.4484237922208509</v>
+        <v>0.364</v>
       </c>
       <c r="O72" t="n">
-        <v>14.79383604391251</v>
+        <v>15.69999999999999</v>
       </c>
       <c r="P72" t="n">
-        <v>6.584383373895312</v>
+        <v>6.546925373134319</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.3204137819131089</v>
+        <v>0.3160000000000001</v>
       </c>
       <c r="R72" t="n">
-        <v>13.49347712010212</v>
+        <v>13.596</v>
       </c>
       <c r="S72" t="n">
-        <v>4.530817254728479</v>
+        <v>4.588796019900486</v>
       </c>
       <c r="T72" t="n">
-        <v>0.2214419988419839</v>
+        <v>0.2119999999999999</v>
       </c>
       <c r="U72" t="n">
-        <v>9.337694164851847</v>
+        <v>9.496000000000004</v>
       </c>
       <c r="V72" t="n">
-        <v>2.333150644866456</v>
+        <v>2.370786069651736</v>
       </c>
       <c r="W72" t="n">
-        <v>0.09009202762777443</v>
+        <v>0.05600000000000001</v>
       </c>
       <c r="X72" t="n">
-        <v>5.282658605426024</v>
+        <v>5.340000000000003</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.4998034741101895</v>
+        <v>0.4819502487562178</v>
       </c>
       <c r="Z72" t="n">
         <v>0</v>
       </c>
       <c r="AA72" t="n">
-        <v>1.34528524699326</v>
+        <v>1.328</v>
       </c>
     </row>
   </sheetData>
